--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GÖRKEM_YEDEK\Belgeler\Turkish_energy_and_climate_pathways\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CB33DC-F71D-4CA2-BF12-93341107C59D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14BD40A-59E2-4CFC-AF2A-51FC9A882CB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="110">
   <si>
     <t>Model</t>
   </si>
@@ -347,15 +347,19 @@
   </si>
   <si>
     <t>CO2</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Renewable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;&quot;\-&quot;&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -853,9 +857,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1212,12 +1217,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J339"/>
+  <dimension ref="A1:J338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G340" sqref="G340"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1912,16 +1917,17 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
       </c>
-      <c r="H30">
-        <v>460</v>
-      </c>
-      <c r="J30">
-        <v>770</v>
+      <c r="G30">
+        <v>172.9</v>
+      </c>
+      <c r="H30" s="2">
+        <f>460.6*0.55</f>
+        <v>253.33000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1935,13 +1941,17 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="J31">
-        <v>37.5</v>
+      <c r="G31">
+        <v>132</v>
+      </c>
+      <c r="H31" s="2">
+        <f>460.6*0.45</f>
+        <v>207.27</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -1981,16 +1991,17 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
       </c>
-      <c r="H33">
-        <v>90</v>
-      </c>
-      <c r="J33">
-        <v>146</v>
+      <c r="G33">
+        <v>172.9</v>
+      </c>
+      <c r="H33" s="2">
+        <f>472.3*0.31</f>
+        <v>146.41300000000001</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2004,16 +2015,17 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="H34">
-        <v>72.5</v>
-      </c>
-      <c r="J34">
-        <v>362</v>
+      <c r="G34">
+        <v>132</v>
+      </c>
+      <c r="H34" s="2">
+        <f>472.3*0.69</f>
+        <v>325.887</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2027,39 +2039,51 @@
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="G35">
+        <v>397.2</v>
+      </c>
+      <c r="H35">
+        <v>287.3</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>28.9</v>
       </c>
       <c r="G36">
-        <v>397.2</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>287.3</v>
+        <v>56.6</v>
+      </c>
+      <c r="I36">
+        <v>84.6</v>
       </c>
       <c r="J36">
-        <v>131.6</v>
+        <v>127.9</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -2073,25 +2097,25 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>28.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G37">
-        <v>39</v>
+        <v>7.6</v>
       </c>
       <c r="H37">
-        <v>56.6</v>
+        <v>11.8</v>
       </c>
       <c r="I37">
-        <v>84.6</v>
+        <v>18.2</v>
       </c>
       <c r="J37">
-        <v>127.9</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -2105,25 +2129,25 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38">
-        <v>5.0999999999999996</v>
+        <v>30.6</v>
       </c>
       <c r="G38">
-        <v>7.6</v>
+        <v>46</v>
       </c>
       <c r="H38">
-        <v>11.8</v>
+        <v>71</v>
       </c>
       <c r="I38">
-        <v>18.2</v>
+        <v>109.7</v>
       </c>
       <c r="J38">
-        <v>28.2</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2137,25 +2161,25 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39">
-        <v>30.6</v>
+        <v>15.3</v>
       </c>
       <c r="G39">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H39">
-        <v>71</v>
+        <v>35.5</v>
       </c>
       <c r="I39">
-        <v>109.7</v>
+        <v>54.9</v>
       </c>
       <c r="J39">
-        <v>169.5</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2169,25 +2193,25 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40">
-        <v>15.3</v>
+        <v>3.5</v>
       </c>
       <c r="G40">
-        <v>23</v>
+        <v>5.2</v>
       </c>
       <c r="H40">
-        <v>35.5</v>
+        <v>8</v>
       </c>
       <c r="I40">
-        <v>54.9</v>
+        <v>12.4</v>
       </c>
       <c r="J40">
-        <v>84.8</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -2195,31 +2219,31 @@
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
       </c>
       <c r="F41">
-        <v>3.5</v>
+        <v>28.9</v>
       </c>
       <c r="G41">
-        <v>5.2</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I41">
-        <v>12.4</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="J41">
-        <v>19.100000000000001</v>
+        <v>119.3</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2233,25 +2257,25 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
       </c>
       <c r="F42">
-        <v>28.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G42">
-        <v>33.299999999999997</v>
+        <v>7.6</v>
       </c>
       <c r="H42">
-        <v>48</v>
+        <v>11.8</v>
       </c>
       <c r="I42">
-        <v>75.900000000000006</v>
+        <v>18.2</v>
       </c>
       <c r="J42">
-        <v>119.3</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -2265,25 +2289,25 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
       </c>
       <c r="F43">
-        <v>5.0999999999999996</v>
+        <v>30.6</v>
       </c>
       <c r="G43">
-        <v>7.6</v>
+        <v>40.9</v>
       </c>
       <c r="H43">
-        <v>11.8</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="I43">
-        <v>18.2</v>
+        <v>103.6</v>
       </c>
       <c r="J43">
-        <v>28.2</v>
+        <v>163.4</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -2297,25 +2321,25 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
       </c>
       <c r="F44">
-        <v>30.6</v>
+        <v>15.3</v>
       </c>
       <c r="G44">
-        <v>40.9</v>
+        <v>22.2</v>
       </c>
       <c r="H44">
-        <v>64.900000000000006</v>
+        <v>34.5</v>
       </c>
       <c r="I44">
-        <v>103.6</v>
+        <v>53.8</v>
       </c>
       <c r="J44">
-        <v>163.4</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -2329,25 +2353,25 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45">
-        <v>15.3</v>
+        <v>3.5</v>
       </c>
       <c r="G45">
-        <v>22.2</v>
+        <v>5.2</v>
       </c>
       <c r="H45">
-        <v>34.5</v>
+        <v>8</v>
       </c>
       <c r="I45">
-        <v>53.8</v>
+        <v>12.4</v>
       </c>
       <c r="J45">
-        <v>83.7</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -2355,31 +2379,31 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46">
-        <v>3.5</v>
+        <v>28.9</v>
       </c>
       <c r="G46">
-        <v>5.2</v>
+        <v>36.1</v>
       </c>
       <c r="H46">
-        <v>8</v>
+        <v>52.3</v>
       </c>
       <c r="I46">
-        <v>12.4</v>
+        <v>80.2</v>
       </c>
       <c r="J46">
-        <v>19.100000000000001</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -2393,25 +2417,25 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
       </c>
       <c r="F47">
-        <v>28.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G47">
-        <v>36.1</v>
+        <v>7.6</v>
       </c>
       <c r="H47">
-        <v>52.3</v>
+        <v>11.8</v>
       </c>
       <c r="I47">
-        <v>80.2</v>
+        <v>18.2</v>
       </c>
       <c r="J47">
-        <v>123.6</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -2425,25 +2449,25 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48">
-        <v>5.0999999999999996</v>
+        <v>30.6</v>
       </c>
       <c r="G48">
-        <v>7.6</v>
+        <v>43.4</v>
       </c>
       <c r="H48">
-        <v>11.8</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="I48">
-        <v>18.2</v>
+        <v>106.6</v>
       </c>
       <c r="J48">
-        <v>28.2</v>
+        <v>166.4</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -2457,25 +2481,25 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
       </c>
       <c r="F49">
-        <v>30.6</v>
+        <v>15.3</v>
       </c>
       <c r="G49">
-        <v>43.4</v>
+        <v>22.5</v>
       </c>
       <c r="H49">
-        <v>67.900000000000006</v>
+        <v>34.5</v>
       </c>
       <c r="I49">
-        <v>106.6</v>
+        <v>53.8</v>
       </c>
       <c r="J49">
-        <v>166.4</v>
+        <v>83.7</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -2489,57 +2513,48 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
       </c>
       <c r="F50">
-        <v>15.3</v>
+        <v>3.5</v>
       </c>
       <c r="G50">
-        <v>22.5</v>
+        <v>5.2</v>
       </c>
       <c r="H50">
-        <v>34.5</v>
+        <v>8</v>
       </c>
       <c r="I50">
-        <v>53.8</v>
+        <v>12.4</v>
       </c>
       <c r="J50">
-        <v>83.7</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
       </c>
       <c r="F51">
-        <v>3.5</v>
+        <v>42</v>
       </c>
       <c r="G51">
-        <v>5.2</v>
-      </c>
-      <c r="H51">
-        <v>8</v>
-      </c>
-      <c r="I51">
-        <v>12.4</v>
-      </c>
-      <c r="J51">
-        <v>19.100000000000001</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -2553,16 +2568,16 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
       </c>
       <c r="F52">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G52">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -2576,16 +2591,16 @@
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
       </c>
       <c r="F53">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G53">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -2599,16 +2614,16 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
       </c>
       <c r="F54">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G54">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -2622,16 +2637,16 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -2645,16 +2660,16 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>23.3</v>
       </c>
       <c r="G56">
-        <v>12</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -2668,16 +2683,16 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
       </c>
       <c r="F57">
-        <v>23.3</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>37.299999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -2691,16 +2706,16 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -2714,16 +2729,13 @@
         <v>5</v>
       </c>
       <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59">
         <v>8</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59">
-        <v>0.2</v>
-      </c>
-      <c r="G59">
-        <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -2737,13 +2749,16 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
       </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
       <c r="G60">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -2757,16 +2772,16 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -2780,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
@@ -2789,7 +2804,7 @@
         <v>0.4</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
@@ -2803,16 +2818,16 @@
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
       </c>
       <c r="F63">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -2826,16 +2841,16 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2849,16 +2864,16 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
       </c>
       <c r="F65">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2872,16 +2887,16 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>12.3</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -2895,16 +2910,16 @@
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F67">
-        <v>12.3</v>
+        <v>101</v>
       </c>
       <c r="G67">
-        <v>19.399999999999999</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2918,16 +2933,16 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
         <v>18</v>
       </c>
       <c r="F68">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G68">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -2941,16 +2956,16 @@
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
         <v>18</v>
       </c>
       <c r="F69">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2964,16 +2979,16 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
         <v>18</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -2987,16 +3002,16 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="G71">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3010,16 +3025,16 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E72" t="s">
         <v>18</v>
       </c>
       <c r="F72">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="G72">
-        <v>160</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3033,16 +3048,16 @@
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="G73">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3056,16 +3071,13 @@
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
         <v>18</v>
       </c>
-      <c r="F74">
-        <v>107</v>
-      </c>
       <c r="G74">
-        <v>167</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3079,13 +3091,16 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
       </c>
+      <c r="F75">
+        <v>62</v>
+      </c>
       <c r="G75">
-        <v>32</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3099,39 +3114,42 @@
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F76">
-        <v>62</v>
+        <v>349.81</v>
       </c>
       <c r="G76">
-        <v>118</v>
+        <v>604.63</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77">
-        <v>349.81</v>
+        <v>6</v>
       </c>
       <c r="G77">
-        <v>604.63</v>
+        <v>41.2</v>
+      </c>
+      <c r="H77">
+        <v>38.9</v>
+      </c>
+      <c r="I77">
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3139,7 +3157,7 @@
         <v>57</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3154,10 +3172,10 @@
         <v>41.2</v>
       </c>
       <c r="H78">
-        <v>38.9</v>
+        <v>36.6</v>
       </c>
       <c r="I78">
-        <v>48</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -3165,25 +3183,25 @@
         <v>57</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
         <v>6</v>
       </c>
       <c r="G79">
-        <v>41.2</v>
+        <v>41.9</v>
       </c>
       <c r="H79">
-        <v>36.6</v>
+        <v>50.8</v>
       </c>
       <c r="I79">
-        <v>42.6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3191,7 +3209,7 @@
         <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3206,10 +3224,10 @@
         <v>41.9</v>
       </c>
       <c r="H80">
-        <v>50.8</v>
+        <v>47.3</v>
       </c>
       <c r="I80">
-        <v>56</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3217,25 +3235,25 @@
         <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
         <v>6</v>
       </c>
       <c r="G81">
-        <v>41.9</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="H81">
-        <v>47.3</v>
+        <v>52.5</v>
       </c>
       <c r="I81">
-        <v>46.6</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3243,7 +3261,7 @@
         <v>57</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3258,10 +3276,10 @@
         <v>40.799999999999997</v>
       </c>
       <c r="H82">
-        <v>52.5</v>
+        <v>41.8</v>
       </c>
       <c r="I82">
-        <v>50.9</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3269,25 +3287,25 @@
         <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
         <v>6</v>
       </c>
       <c r="G83">
-        <v>40.799999999999997</v>
+        <v>19.7</v>
       </c>
       <c r="H83">
-        <v>41.8</v>
+        <v>38.9</v>
       </c>
       <c r="I83">
-        <v>25.7</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3295,7 +3313,7 @@
         <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3310,10 +3328,10 @@
         <v>19.7</v>
       </c>
       <c r="H84">
-        <v>38.9</v>
+        <v>41.7</v>
       </c>
       <c r="I84">
-        <v>60.8</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3321,25 +3339,25 @@
         <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
         <v>6</v>
       </c>
       <c r="G85">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>41.7</v>
+        <v>4.7</v>
       </c>
       <c r="I85">
-        <v>64.8</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3347,7 +3365,7 @@
         <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3362,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="I86">
-        <v>16.3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3373,25 +3391,25 @@
         <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E87" t="s">
         <v>6</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>31.2</v>
       </c>
       <c r="I87">
-        <v>21</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3399,7 +3417,7 @@
         <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3414,10 +3432,10 @@
         <v>22.1</v>
       </c>
       <c r="H88">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="I88">
-        <v>42.3</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3425,25 +3443,25 @@
         <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
         <v>6</v>
       </c>
       <c r="G89">
-        <v>22.1</v>
+        <v>23.6</v>
       </c>
       <c r="H89">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="I89">
-        <v>37.200000000000003</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3451,7 +3469,7 @@
         <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3466,10 +3484,10 @@
         <v>23.6</v>
       </c>
       <c r="H90">
-        <v>30.1</v>
+        <v>31.2</v>
       </c>
       <c r="I90">
-        <v>36.799999999999997</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3477,25 +3495,25 @@
         <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
         <v>6</v>
       </c>
       <c r="G91">
-        <v>23.6</v>
+        <v>35.6</v>
       </c>
       <c r="H91">
-        <v>31.2</v>
+        <v>43</v>
       </c>
       <c r="I91">
-        <v>38.1</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3503,7 +3521,7 @@
         <v>57</v>
       </c>
       <c r="B92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3518,10 +3536,10 @@
         <v>35.6</v>
       </c>
       <c r="H92">
-        <v>43</v>
+        <v>40.1</v>
       </c>
       <c r="I92">
-        <v>47.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
@@ -3529,25 +3547,25 @@
         <v>57</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
         <v>6</v>
       </c>
       <c r="G93">
-        <v>35.6</v>
+        <v>13.4</v>
       </c>
       <c r="H93">
-        <v>40.1</v>
+        <v>13.1</v>
       </c>
       <c r="I93">
-        <v>39.5</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3555,7 +3573,7 @@
         <v>57</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3570,10 +3588,10 @@
         <v>13.4</v>
       </c>
       <c r="H94">
-        <v>13.1</v>
+        <v>8.5</v>
       </c>
       <c r="I94">
-        <v>12.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3581,25 +3599,25 @@
         <v>57</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
         <v>6</v>
       </c>
       <c r="G95">
-        <v>13.4</v>
+        <v>7.8</v>
       </c>
       <c r="H95">
-        <v>8.5</v>
+        <v>10.1</v>
       </c>
       <c r="I95">
-        <v>3.9</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3607,7 +3625,7 @@
         <v>57</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3622,10 +3640,10 @@
         <v>7.8</v>
       </c>
       <c r="H96">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="I96">
-        <v>15.6</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3633,25 +3651,25 @@
         <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
       </c>
       <c r="G97">
-        <v>7.8</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="H97">
-        <v>10.6</v>
+        <v>43.1</v>
       </c>
       <c r="I97">
-        <v>16.7</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3659,7 +3677,7 @@
         <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3674,10 +3692,10 @@
         <v>36.200000000000003</v>
       </c>
       <c r="H98">
-        <v>43.1</v>
+        <v>39.6</v>
       </c>
       <c r="I98">
-        <v>53.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3685,25 +3703,25 @@
         <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E99" t="s">
         <v>6</v>
       </c>
       <c r="G99">
-        <v>36.200000000000003</v>
+        <v>33.4</v>
       </c>
       <c r="H99">
-        <v>39.6</v>
+        <v>43.4</v>
       </c>
       <c r="I99">
-        <v>46</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -3711,7 +3729,7 @@
         <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3726,10 +3744,10 @@
         <v>33.4</v>
       </c>
       <c r="H100">
-        <v>43.4</v>
+        <v>41.8</v>
       </c>
       <c r="I100">
-        <v>53.7</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
@@ -3737,25 +3755,25 @@
         <v>57</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
         <v>6</v>
       </c>
       <c r="G101">
-        <v>33.4</v>
+        <v>28.4</v>
       </c>
       <c r="H101">
-        <v>41.8</v>
+        <v>35.6</v>
       </c>
       <c r="I101">
-        <v>48.4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -3763,7 +3781,7 @@
         <v>57</v>
       </c>
       <c r="B102" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3778,10 +3796,10 @@
         <v>28.4</v>
       </c>
       <c r="H102">
-        <v>35.6</v>
+        <v>34</v>
       </c>
       <c r="I102">
-        <v>41</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.35">
@@ -3789,25 +3807,25 @@
         <v>57</v>
       </c>
       <c r="B103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E103" t="s">
         <v>6</v>
       </c>
       <c r="G103">
-        <v>28.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H103">
-        <v>34</v>
+        <v>5.5</v>
       </c>
       <c r="I103">
-        <v>35.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.35">
@@ -3815,7 +3833,7 @@
         <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3830,10 +3848,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H104">
+        <v>5</v>
+      </c>
+      <c r="I104">
         <v>5.5</v>
-      </c>
-      <c r="I104">
-        <v>6.3</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.35">
@@ -3841,25 +3859,25 @@
         <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E105" t="s">
         <v>6</v>
       </c>
       <c r="G105">
-        <v>4.5999999999999996</v>
+        <v>10</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="I105">
-        <v>5.5</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.35">
@@ -3867,7 +3885,7 @@
         <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3882,10 +3900,10 @@
         <v>10</v>
       </c>
       <c r="H106">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="I106">
-        <v>17.399999999999999</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.35">
@@ -3893,25 +3911,25 @@
         <v>57</v>
       </c>
       <c r="B107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E107" t="s">
         <v>6</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="H107">
-        <v>13.1</v>
+        <v>11.7</v>
       </c>
       <c r="I107">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.35">
@@ -3919,7 +3937,7 @@
         <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3934,10 +3952,10 @@
         <v>9.4</v>
       </c>
       <c r="H108">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="I108">
-        <v>15.8</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.35">
@@ -3945,25 +3963,25 @@
         <v>57</v>
       </c>
       <c r="B109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E109" t="s">
         <v>6</v>
       </c>
       <c r="G109">
-        <v>9.4</v>
+        <v>3.8</v>
       </c>
       <c r="H109">
-        <v>12.2</v>
+        <v>4.3</v>
       </c>
       <c r="I109">
-        <v>16.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
@@ -3971,7 +3989,7 @@
         <v>57</v>
       </c>
       <c r="B110" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3986,10 +4004,10 @@
         <v>3.8</v>
       </c>
       <c r="H110">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I110">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
@@ -3997,25 +4015,25 @@
         <v>57</v>
       </c>
       <c r="B111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E111" t="s">
         <v>6</v>
       </c>
       <c r="G111">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="H111">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="I111">
-        <v>3.3</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.35">
@@ -4023,7 +4041,7 @@
         <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4038,10 +4056,10 @@
         <v>9.5</v>
       </c>
       <c r="H112">
-        <v>9.4</v>
+        <v>5.9</v>
       </c>
       <c r="I112">
-        <v>8.8000000000000007</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -4049,25 +4067,25 @@
         <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E113" t="s">
         <v>6</v>
       </c>
       <c r="G113">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="H113">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="I113">
-        <v>3.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.35">
@@ -4075,7 +4093,7 @@
         <v>57</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4090,10 +4108,10 @@
         <v>3.5</v>
       </c>
       <c r="H114">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I114">
-        <v>7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.35">
@@ -4101,25 +4119,25 @@
         <v>57</v>
       </c>
       <c r="B115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E115" t="s">
         <v>6</v>
       </c>
       <c r="G115">
-        <v>3.5</v>
+        <v>11.3</v>
       </c>
       <c r="H115">
-        <v>4.5999999999999996</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="I115">
-        <v>7.9</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
@@ -4127,7 +4145,7 @@
         <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4142,10 +4160,10 @@
         <v>11.3</v>
       </c>
       <c r="H116">
-        <v>16.600000000000001</v>
+        <v>15.6</v>
       </c>
       <c r="I116">
-        <v>23.3</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -4153,25 +4171,25 @@
         <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E117" t="s">
         <v>6</v>
       </c>
       <c r="G117">
-        <v>11.3</v>
+        <v>13.7</v>
       </c>
       <c r="H117">
-        <v>15.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I117">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -4179,7 +4197,7 @@
         <v>57</v>
       </c>
       <c r="B118" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4194,10 +4212,10 @@
         <v>13.7</v>
       </c>
       <c r="H118">
-        <v>17.600000000000001</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="I118">
-        <v>19.8</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
@@ -4205,25 +4223,25 @@
         <v>57</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E119" t="s">
         <v>6</v>
       </c>
       <c r="G119">
-        <v>13.7</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>18.100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I119">
-        <v>20.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
@@ -4231,7 +4249,7 @@
         <v>57</v>
       </c>
       <c r="B120" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4246,10 +4264,10 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -4257,25 +4275,25 @@
         <v>57</v>
       </c>
       <c r="B121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E121" t="s">
         <v>6</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="I121">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
@@ -4283,7 +4301,7 @@
         <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4298,10 +4316,10 @@
         <v>3.9</v>
       </c>
       <c r="H122">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="I122">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -4309,25 +4327,25 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E123" t="s">
         <v>6</v>
       </c>
       <c r="G123">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H123">
-        <v>2.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I123">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.35">
@@ -4335,7 +4353,7 @@
         <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4350,10 +4368,10 @@
         <v>3.5</v>
       </c>
       <c r="H124">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="I124">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -4361,25 +4379,25 @@
         <v>57</v>
       </c>
       <c r="B125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
       <c r="D125" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E125" t="s">
         <v>6</v>
       </c>
       <c r="G125">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="H125">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="I125">
-        <v>6.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -4387,7 +4405,7 @@
         <v>57</v>
       </c>
       <c r="B126" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4402,10 +4420,10 @@
         <v>0.1</v>
       </c>
       <c r="H126">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I126">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -4413,13 +4431,13 @@
         <v>57</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E127" t="s">
         <v>6</v>
@@ -4428,10 +4446,10 @@
         <v>0.1</v>
       </c>
       <c r="H127">
+        <v>0.2</v>
+      </c>
+      <c r="I127">
         <v>0.5</v>
-      </c>
-      <c r="I127">
-        <v>1.4</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -4439,7 +4457,7 @@
         <v>57</v>
       </c>
       <c r="B128" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4454,10 +4472,10 @@
         <v>0.1</v>
       </c>
       <c r="H128">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I128">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.35">
@@ -4465,25 +4483,25 @@
         <v>57</v>
       </c>
       <c r="B129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E129" t="s">
         <v>6</v>
       </c>
       <c r="G129">
-        <v>0.1</v>
+        <v>27.8</v>
       </c>
       <c r="H129">
-        <v>0.3</v>
+        <v>34.6</v>
       </c>
       <c r="I129">
-        <v>0.7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.35">
@@ -4491,7 +4509,7 @@
         <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4506,10 +4524,10 @@
         <v>27.8</v>
       </c>
       <c r="H130">
-        <v>34.6</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="I130">
-        <v>39</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.35">
@@ -4517,25 +4535,25 @@
         <v>57</v>
       </c>
       <c r="B131" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E131" t="s">
         <v>6</v>
       </c>
       <c r="G131">
-        <v>27.8</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>32.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>32.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
@@ -4543,7 +4561,7 @@
         <v>57</v>
       </c>
       <c r="B132" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4569,25 +4587,25 @@
         <v>57</v>
       </c>
       <c r="B133" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E133" t="s">
         <v>6</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
@@ -4595,7 +4613,7 @@
         <v>57</v>
       </c>
       <c r="B134" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4610,7 +4628,7 @@
         <v>0.2</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I134">
         <v>0.2</v>
@@ -4621,25 +4639,25 @@
         <v>57</v>
       </c>
       <c r="B135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E135" t="s">
         <v>6</v>
       </c>
       <c r="G135">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H135">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I135">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
@@ -4647,7 +4665,7 @@
         <v>57</v>
       </c>
       <c r="B136" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4673,25 +4691,25 @@
         <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E137" t="s">
         <v>6</v>
       </c>
       <c r="G137">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H137">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="I137">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
@@ -4699,7 +4717,7 @@
         <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4725,25 +4743,25 @@
         <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E139" t="s">
         <v>6</v>
       </c>
       <c r="G139">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H139">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
       <c r="I139">
-        <v>0.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
@@ -4751,7 +4769,7 @@
         <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4766,10 +4784,10 @@
         <v>3</v>
       </c>
       <c r="H140">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="I140">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.35">
@@ -4777,25 +4795,25 @@
         <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E141" t="s">
         <v>6</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.35">
@@ -4803,7 +4821,7 @@
         <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4829,25 +4847,25 @@
         <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E143" t="s">
         <v>6</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
@@ -4855,7 +4873,7 @@
         <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4873,7 +4891,7 @@
         <v>1.3</v>
       </c>
       <c r="I144">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
@@ -4881,25 +4899,25 @@
         <v>57</v>
       </c>
       <c r="B145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
       <c r="D145" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E145" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G145">
-        <v>0.6</v>
+        <v>113</v>
       </c>
       <c r="H145">
-        <v>1.3</v>
+        <v>161.1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>166.1</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
@@ -4907,7 +4925,7 @@
         <v>57</v>
       </c>
       <c r="B146" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4922,10 +4940,10 @@
         <v>113</v>
       </c>
       <c r="H146">
-        <v>161.1</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="I146">
-        <v>166.1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
@@ -4933,25 +4951,25 @@
         <v>57</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E147" t="s">
         <v>18</v>
       </c>
       <c r="G147">
-        <v>113</v>
+        <v>55.1</v>
       </c>
       <c r="H147">
-        <v>138.69999999999999</v>
+        <v>58.8</v>
       </c>
       <c r="I147">
-        <v>94</v>
+        <v>75.8</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
@@ -4959,7 +4977,7 @@
         <v>57</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4974,10 +4992,10 @@
         <v>55.1</v>
       </c>
       <c r="H148">
-        <v>58.8</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="I148">
-        <v>75.8</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
@@ -4985,25 +5003,25 @@
         <v>57</v>
       </c>
       <c r="B149" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E149" t="s">
         <v>18</v>
       </c>
       <c r="G149">
-        <v>55.1</v>
+        <v>0.9</v>
       </c>
       <c r="H149">
-        <v>36.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="I149">
-        <v>30.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
@@ -5011,7 +5029,7 @@
         <v>57</v>
       </c>
       <c r="B150" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -5037,25 +5055,25 @@
         <v>57</v>
       </c>
       <c r="B151" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E151" t="s">
         <v>18</v>
       </c>
       <c r="G151">
-        <v>0.9</v>
+        <v>88.6</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.35">
@@ -5063,7 +5081,7 @@
         <v>57</v>
       </c>
       <c r="B152" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -5078,10 +5096,10 @@
         <v>88.6</v>
       </c>
       <c r="H152">
-        <v>69.900000000000006</v>
+        <v>70.7</v>
       </c>
       <c r="I152">
-        <v>68.099999999999994</v>
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
@@ -5089,25 +5107,25 @@
         <v>57</v>
       </c>
       <c r="B153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
       </c>
       <c r="D153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E153" t="s">
         <v>18</v>
       </c>
       <c r="G153">
-        <v>88.6</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>70.7</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I153">
-        <v>69.400000000000006</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
@@ -5115,7 +5133,7 @@
         <v>57</v>
       </c>
       <c r="B154" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -5130,10 +5148,10 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>17.899999999999999</v>
+        <v>26.8</v>
       </c>
       <c r="I154">
-        <v>62.5</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
@@ -5141,25 +5159,25 @@
         <v>57</v>
       </c>
       <c r="B155" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E155" t="s">
         <v>18</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>21.4</v>
       </c>
       <c r="H155">
-        <v>26.8</v>
+        <v>50.5</v>
       </c>
       <c r="I155">
-        <v>80.400000000000006</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
@@ -5167,7 +5185,7 @@
         <v>57</v>
       </c>
       <c r="B156" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -5182,10 +5200,10 @@
         <v>21.4</v>
       </c>
       <c r="H156">
-        <v>50.5</v>
+        <v>55.5</v>
       </c>
       <c r="I156">
-        <v>93.2</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
@@ -5193,25 +5211,25 @@
         <v>57</v>
       </c>
       <c r="B157" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
       <c r="D157" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E157" t="s">
         <v>18</v>
       </c>
       <c r="G157">
-        <v>21.4</v>
+        <v>9.6</v>
       </c>
       <c r="H157">
-        <v>55.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="I157">
-        <v>99.7</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
@@ -5219,7 +5237,7 @@
         <v>57</v>
       </c>
       <c r="B158" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -5234,10 +5252,10 @@
         <v>9.6</v>
       </c>
       <c r="H158">
-        <v>33.799999999999997</v>
+        <v>37.9</v>
       </c>
       <c r="I158">
-        <v>67.5</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
@@ -5245,25 +5263,25 @@
         <v>57</v>
       </c>
       <c r="B159" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E159" t="s">
         <v>18</v>
       </c>
       <c r="G159">
-        <v>9.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H159">
-        <v>37.9</v>
+        <v>24.3</v>
       </c>
       <c r="I159">
-        <v>74.7</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
@@ -5271,7 +5289,7 @@
         <v>57</v>
       </c>
       <c r="B160" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -5286,10 +5304,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H160">
-        <v>24.3</v>
+        <v>25</v>
       </c>
       <c r="I160">
-        <v>24.4</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.35">
@@ -5297,25 +5315,25 @@
         <v>57</v>
       </c>
       <c r="B161" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="E161" t="s">
         <v>18</v>
       </c>
       <c r="G161">
-        <v>8.1999999999999993</v>
+        <v>4</v>
       </c>
       <c r="H161">
-        <v>25</v>
+        <v>7.7</v>
       </c>
       <c r="I161">
-        <v>28.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.35">
@@ -5323,7 +5341,7 @@
         <v>57</v>
       </c>
       <c r="B162" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -5338,10 +5356,10 @@
         <v>4</v>
       </c>
       <c r="H162">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="I162">
-        <v>13</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.35">
@@ -5349,25 +5367,25 @@
         <v>57</v>
       </c>
       <c r="B163" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G163">
-        <v>4</v>
+        <v>369.3</v>
       </c>
       <c r="H163">
-        <v>7.8</v>
+        <v>440.1</v>
       </c>
       <c r="I163">
-        <v>14.2</v>
+        <v>477.2</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.35">
@@ -5375,7 +5393,7 @@
         <v>57</v>
       </c>
       <c r="B164" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -5390,36 +5408,39 @@
         <v>369.3</v>
       </c>
       <c r="H164">
-        <v>440.1</v>
+        <v>382.6</v>
       </c>
       <c r="I164">
-        <v>477.2</v>
+        <v>332.3</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B165" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="E165" t="s">
         <v>28</v>
       </c>
       <c r="G165">
-        <v>369.3</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="H165">
-        <v>382.6</v>
+        <v>146.9</v>
       </c>
       <c r="I165">
-        <v>332.3</v>
+        <v>89.2</v>
+      </c>
+      <c r="J165">
+        <v>-4.7</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.35">
@@ -5427,28 +5448,28 @@
         <v>93</v>
       </c>
       <c r="B166" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="E166" t="s">
         <v>28</v>
       </c>
       <c r="G166">
-        <v>137.80000000000001</v>
+        <v>382</v>
       </c>
       <c r="H166">
-        <v>146.9</v>
+        <v>357</v>
       </c>
       <c r="I166">
-        <v>89.2</v>
+        <v>161</v>
       </c>
       <c r="J166">
-        <v>-4.7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.35">
@@ -5462,22 +5483,22 @@
         <v>5</v>
       </c>
       <c r="D167" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="E167" t="s">
         <v>28</v>
       </c>
       <c r="G167">
-        <v>382</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="H167">
-        <v>357</v>
+        <v>103.1</v>
       </c>
       <c r="I167">
-        <v>161</v>
+        <v>27.5</v>
       </c>
       <c r="J167">
-        <v>31</v>
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.35">
@@ -5491,22 +5512,13 @@
         <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E168" t="s">
-        <v>28</v>
-      </c>
-      <c r="G168">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="H168">
-        <v>103.1</v>
-      </c>
-      <c r="I168">
-        <v>27.5</v>
+        <v>18</v>
       </c>
       <c r="J168">
-        <v>-4.4000000000000004</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.35">
@@ -5520,13 +5532,13 @@
         <v>5</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E169" t="s">
         <v>18</v>
       </c>
       <c r="J169">
-        <v>109.7</v>
+        <v>87.4</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.35">
@@ -5540,33 +5552,36 @@
         <v>5</v>
       </c>
       <c r="D170" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E170" t="s">
         <v>18</v>
       </c>
       <c r="J170">
-        <v>87.4</v>
+        <v>17.3</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B171" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
       </c>
       <c r="D171" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E171" t="s">
         <v>18</v>
       </c>
-      <c r="J171">
-        <v>17.3</v>
+      <c r="H171">
+        <v>0.155</v>
+      </c>
+      <c r="I171">
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.35">
@@ -5580,16 +5595,16 @@
         <v>5</v>
       </c>
       <c r="D172" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E172" t="s">
         <v>18</v>
       </c>
       <c r="H172">
-        <v>0.155</v>
+        <v>8.625</v>
       </c>
       <c r="I172">
-        <v>0.14000000000000001</v>
+        <v>8.1829999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.35">
@@ -5603,16 +5618,18 @@
         <v>5</v>
       </c>
       <c r="D173" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E173" t="s">
         <v>18</v>
       </c>
       <c r="H173">
-        <v>8.625</v>
+        <f>62.057+19.597</f>
+        <v>81.653999999999996</v>
       </c>
       <c r="I173">
-        <v>8.1829999999999998</v>
+        <f>61.466+19.407</f>
+        <v>80.873000000000005</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.35">
@@ -5626,18 +5643,18 @@
         <v>5</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E174" t="s">
         <v>18</v>
       </c>
       <c r="H174">
-        <f>62.057+19.597</f>
-        <v>81.653999999999996</v>
+        <f>71.386+67.145</f>
+        <v>138.53100000000001</v>
       </c>
       <c r="I174">
-        <f>61.466+19.407</f>
-        <v>80.873000000000005</v>
+        <f>103.693+62.985</f>
+        <v>166.678</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.35">
@@ -5651,18 +5668,16 @@
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E175" t="s">
         <v>18</v>
       </c>
       <c r="H175">
-        <f>71.386+67.145</f>
-        <v>138.53100000000001</v>
+        <v>120.113</v>
       </c>
       <c r="I175">
-        <f>103.693+62.985</f>
-        <v>166.678</v>
+        <v>147.72999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.35">
@@ -5676,16 +5691,16 @@
         <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E176" t="s">
         <v>18</v>
       </c>
       <c r="H176">
-        <v>120.113</v>
+        <v>45.347999999999999</v>
       </c>
       <c r="I176">
-        <v>147.72999999999999</v>
+        <v>74.974999999999994</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.35">
@@ -5699,16 +5714,16 @@
         <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E177" t="s">
         <v>18</v>
       </c>
       <c r="H177">
-        <v>45.347999999999999</v>
+        <v>65.287999999999997</v>
       </c>
       <c r="I177">
-        <v>74.974999999999994</v>
+        <v>122.505</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.35">
@@ -5722,16 +5737,16 @@
         <v>5</v>
       </c>
       <c r="D178" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E178" t="s">
         <v>18</v>
       </c>
       <c r="H178">
-        <v>65.287999999999997</v>
+        <v>2.069</v>
       </c>
       <c r="I178">
-        <v>122.505</v>
+        <v>4.726</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.35">
@@ -5739,22 +5754,22 @@
         <v>96</v>
       </c>
       <c r="B179" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E179" t="s">
         <v>18</v>
       </c>
       <c r="H179">
-        <v>2.069</v>
+        <v>9.42</v>
       </c>
       <c r="I179">
-        <v>4.726</v>
+        <v>11.742000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.35">
@@ -5768,16 +5783,16 @@
         <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E180" t="s">
         <v>18</v>
       </c>
       <c r="H180">
-        <v>9.42</v>
+        <v>13.006</v>
       </c>
       <c r="I180">
-        <v>11.742000000000001</v>
+        <v>12.269</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.35">
@@ -5791,16 +5806,18 @@
         <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E181" t="s">
         <v>18</v>
       </c>
       <c r="H181">
-        <v>13.006</v>
+        <f>62.169+20.637</f>
+        <v>82.805999999999997</v>
       </c>
       <c r="I181">
-        <v>12.269</v>
+        <f>72.803+28.855</f>
+        <v>101.658</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
@@ -5814,18 +5831,18 @@
         <v>5</v>
       </c>
       <c r="D182" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E182" t="s">
         <v>18</v>
       </c>
       <c r="H182">
-        <f>62.169+20.637</f>
-        <v>82.805999999999997</v>
+        <f>36.026+43.504</f>
+        <v>79.53</v>
       </c>
       <c r="I182">
-        <f>72.803+28.855</f>
-        <v>101.658</v>
+        <f>48.033+42</f>
+        <v>90.033000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.35">
@@ -5839,18 +5856,16 @@
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E183" t="s">
         <v>18</v>
       </c>
       <c r="H183">
-        <f>36.026+43.504</f>
-        <v>79.53</v>
+        <v>106.794</v>
       </c>
       <c r="I183">
-        <f>48.033+42</f>
-        <v>90.033000000000001</v>
+        <v>104.407</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.35">
@@ -5864,16 +5879,16 @@
         <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E184" t="s">
         <v>18</v>
       </c>
       <c r="H184">
-        <v>106.794</v>
+        <v>49.698</v>
       </c>
       <c r="I184">
-        <v>104.407</v>
+        <v>75.042000000000002</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.35">
@@ -5887,16 +5902,16 @@
         <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E185" t="s">
         <v>18</v>
       </c>
       <c r="H185">
-        <v>49.698</v>
+        <v>76.096999999999994</v>
       </c>
       <c r="I185">
-        <v>75.042000000000002</v>
+        <v>126.139</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.35">
@@ -5910,16 +5925,16 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E186" t="s">
         <v>18</v>
       </c>
       <c r="H186">
-        <v>76.096999999999994</v>
+        <v>2.3069999999999999</v>
       </c>
       <c r="I186">
-        <v>126.139</v>
+        <v>4.2750000000000004</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.35">
@@ -5927,22 +5942,25 @@
         <v>96</v>
       </c>
       <c r="B187" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E187" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="G187">
+        <v>505</v>
       </c>
       <c r="H187">
-        <v>2.3069999999999999</v>
+        <v>619.6</v>
       </c>
       <c r="I187">
-        <v>4.2750000000000004</v>
+        <v>815.1</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
@@ -5950,7 +5968,7 @@
         <v>96</v>
       </c>
       <c r="B188" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5962,13 +5980,13 @@
         <v>28</v>
       </c>
       <c r="G188">
-        <v>505</v>
+        <v>477.6</v>
       </c>
       <c r="H188">
-        <v>619.6</v>
+        <v>553</v>
       </c>
       <c r="I188">
-        <v>815.1</v>
+        <v>686.7</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.35">
@@ -5976,7 +5994,7 @@
         <v>96</v>
       </c>
       <c r="B189" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5988,21 +6006,21 @@
         <v>28</v>
       </c>
       <c r="G189">
-        <v>477.6</v>
+        <v>461.9</v>
       </c>
       <c r="H189">
-        <v>553</v>
+        <v>492.9</v>
       </c>
       <c r="I189">
-        <v>686.7</v>
+        <v>541.20000000000005</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B190" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -6014,13 +6032,16 @@
         <v>28</v>
       </c>
       <c r="G190">
-        <v>461.9</v>
+        <v>293.82600000000002</v>
       </c>
       <c r="H190">
-        <v>492.9</v>
+        <v>342.50799999999998</v>
       </c>
       <c r="I190">
-        <v>541.20000000000005</v>
+        <v>355.15800000000002</v>
+      </c>
+      <c r="J190">
+        <v>348.02499999999998</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.35">
@@ -6028,7 +6049,7 @@
         <v>79</v>
       </c>
       <c r="B191" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -6040,16 +6061,16 @@
         <v>28</v>
       </c>
       <c r="G191">
-        <v>293.82600000000002</v>
+        <v>293.363</v>
       </c>
       <c r="H191">
-        <v>342.50799999999998</v>
+        <v>337.81599999999997</v>
       </c>
       <c r="I191">
-        <v>355.15800000000002</v>
+        <v>340.83300000000003</v>
       </c>
       <c r="J191">
-        <v>348.02499999999998</v>
+        <v>341.935</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.35">
@@ -6057,7 +6078,7 @@
         <v>79</v>
       </c>
       <c r="B192" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -6069,16 +6090,16 @@
         <v>28</v>
       </c>
       <c r="G192">
-        <v>293.363</v>
+        <v>301.96300000000002</v>
       </c>
       <c r="H192">
-        <v>337.81599999999997</v>
+        <v>351.77100000000002</v>
       </c>
       <c r="I192">
-        <v>340.83300000000003</v>
+        <v>363.44200000000001</v>
       </c>
       <c r="J192">
-        <v>341.935</v>
+        <v>366.49700000000001</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.35">
@@ -6086,7 +6107,7 @@
         <v>79</v>
       </c>
       <c r="B193" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -6098,16 +6119,16 @@
         <v>28</v>
       </c>
       <c r="G193">
-        <v>301.96300000000002</v>
+        <v>301.46800000000002</v>
       </c>
       <c r="H193">
-        <v>351.77100000000002</v>
+        <v>339.74799999999999</v>
       </c>
       <c r="I193">
-        <v>363.44200000000001</v>
+        <v>336.98500000000001</v>
       </c>
       <c r="J193">
-        <v>366.49700000000001</v>
+        <v>323.18299999999999</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.35">
@@ -6115,7 +6136,7 @@
         <v>79</v>
       </c>
       <c r="B194" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -6127,16 +6148,16 @@
         <v>28</v>
       </c>
       <c r="G194">
-        <v>301.46800000000002</v>
+        <v>311.95699999999999</v>
       </c>
       <c r="H194">
-        <v>339.74799999999999</v>
+        <v>387.61799999999999</v>
       </c>
       <c r="I194">
-        <v>336.98500000000001</v>
+        <v>415.01799999999997</v>
       </c>
       <c r="J194">
-        <v>323.18299999999999</v>
+        <v>428.726</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.35">
@@ -6144,7 +6165,7 @@
         <v>79</v>
       </c>
       <c r="B195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -6156,16 +6177,16 @@
         <v>28</v>
       </c>
       <c r="G195">
-        <v>311.95699999999999</v>
+        <v>310.14299999999997</v>
       </c>
       <c r="H195">
-        <v>387.61799999999999</v>
+        <v>374.64699999999999</v>
       </c>
       <c r="I195">
-        <v>415.01799999999997</v>
+        <v>372.34199999999998</v>
       </c>
       <c r="J195">
-        <v>428.726</v>
+        <v>349.81599999999997</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.35">
@@ -6173,28 +6194,28 @@
         <v>79</v>
       </c>
       <c r="B196" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E196" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G196">
-        <v>310.14299999999997</v>
+        <v>1683.54</v>
       </c>
       <c r="H196">
-        <v>374.64699999999999</v>
+        <v>1848.39</v>
       </c>
       <c r="I196">
-        <v>372.34199999999998</v>
+        <v>1802.41</v>
       </c>
       <c r="J196">
-        <v>349.81599999999997</v>
+        <v>1636.43</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.35">
@@ -6208,22 +6229,22 @@
         <v>5</v>
       </c>
       <c r="D197" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
         <v>51</v>
       </c>
       <c r="G197">
-        <v>1683.54</v>
+        <v>40749.08</v>
       </c>
       <c r="H197">
-        <v>1848.39</v>
+        <v>54763.08</v>
       </c>
       <c r="I197">
-        <v>1802.41</v>
+        <v>60861.97</v>
       </c>
       <c r="J197">
-        <v>1636.43</v>
+        <v>57076.97</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.35">
@@ -6237,22 +6258,22 @@
         <v>5</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E198" t="s">
         <v>51</v>
       </c>
       <c r="G198">
-        <v>40749.08</v>
+        <v>61956.9</v>
       </c>
       <c r="H198">
-        <v>54763.08</v>
+        <v>69105.8</v>
       </c>
       <c r="I198">
-        <v>60861.97</v>
+        <v>63913.8</v>
       </c>
       <c r="J198">
-        <v>57076.97</v>
+        <v>63663.4</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.35">
@@ -6266,22 +6287,22 @@
         <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E199" t="s">
         <v>51</v>
       </c>
       <c r="G199">
-        <v>61956.9</v>
+        <v>1990.01</v>
       </c>
       <c r="H199">
-        <v>69105.8</v>
+        <v>2181.46</v>
       </c>
       <c r="I199">
-        <v>63913.8</v>
+        <v>2216.46</v>
       </c>
       <c r="J199">
-        <v>63663.4</v>
+        <v>1954.63</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.35">
@@ -6295,22 +6316,22 @@
         <v>5</v>
       </c>
       <c r="D200" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E200" t="s">
         <v>51</v>
       </c>
       <c r="G200">
-        <v>1990.01</v>
+        <v>43951.3</v>
       </c>
       <c r="H200">
-        <v>2181.46</v>
+        <v>50013.9</v>
       </c>
       <c r="I200">
-        <v>2216.46</v>
+        <v>53298.8</v>
       </c>
       <c r="J200">
-        <v>1954.63</v>
+        <v>52192.7</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.35">
@@ -6324,22 +6345,22 @@
         <v>5</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E201" t="s">
         <v>51</v>
       </c>
       <c r="G201">
-        <v>43951.3</v>
+        <v>2196.16</v>
       </c>
       <c r="H201">
-        <v>50013.9</v>
+        <v>2602.42</v>
       </c>
       <c r="I201">
-        <v>53298.8</v>
+        <v>4115.08</v>
       </c>
       <c r="J201">
-        <v>52192.7</v>
+        <v>3983.05</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.35">
@@ -6353,22 +6374,22 @@
         <v>5</v>
       </c>
       <c r="D202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E202" t="s">
         <v>51</v>
       </c>
       <c r="G202">
-        <v>2196.16</v>
+        <v>578.25</v>
       </c>
       <c r="H202">
-        <v>2602.42</v>
+        <v>516.39</v>
       </c>
       <c r="I202">
-        <v>4115.08</v>
+        <v>2302.2399999999998</v>
       </c>
       <c r="J202">
-        <v>3983.05</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.35">
@@ -6376,28 +6397,28 @@
         <v>79</v>
       </c>
       <c r="B203" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
       </c>
       <c r="D203" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E203" t="s">
         <v>51</v>
       </c>
       <c r="G203">
-        <v>578.25</v>
+        <v>1683.54</v>
       </c>
       <c r="H203">
-        <v>516.39</v>
+        <v>1861.24</v>
       </c>
       <c r="I203">
-        <v>2302.2399999999998</v>
+        <v>1824.31</v>
       </c>
       <c r="J203">
-        <v>3429.34</v>
+        <v>1634.32</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.35">
@@ -6411,22 +6432,22 @@
         <v>5</v>
       </c>
       <c r="D204" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
         <v>51</v>
       </c>
       <c r="G204">
-        <v>1683.54</v>
+        <v>40628.980000000003</v>
       </c>
       <c r="H204">
-        <v>1861.24</v>
+        <v>54601.58</v>
       </c>
       <c r="I204">
-        <v>1824.31</v>
+        <v>59880.77</v>
       </c>
       <c r="J204">
-        <v>1634.32</v>
+        <v>56366.87</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.35">
@@ -6440,22 +6461,22 @@
         <v>5</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E205" t="s">
         <v>51</v>
       </c>
       <c r="G205">
-        <v>40628.980000000003</v>
+        <v>61953.3</v>
       </c>
       <c r="H205">
-        <v>54601.58</v>
+        <v>66577.600000000006</v>
       </c>
       <c r="I205">
-        <v>59880.77</v>
+        <v>59495.4</v>
       </c>
       <c r="J205">
-        <v>56366.87</v>
+        <v>62673.3</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.35">
@@ -6469,22 +6490,22 @@
         <v>5</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E206" t="s">
         <v>51</v>
       </c>
       <c r="G206">
-        <v>61953.3</v>
+        <v>1990.01</v>
       </c>
       <c r="H206">
-        <v>66577.600000000006</v>
+        <v>2181.46</v>
       </c>
       <c r="I206">
-        <v>59495.4</v>
+        <v>2216.46</v>
       </c>
       <c r="J206">
-        <v>62673.3</v>
+        <v>1971.39</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.35">
@@ -6498,22 +6519,22 @@
         <v>5</v>
       </c>
       <c r="D207" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E207" t="s">
         <v>51</v>
       </c>
       <c r="G207">
-        <v>1990.01</v>
+        <v>43968</v>
       </c>
       <c r="H207">
-        <v>2181.46</v>
+        <v>49953.5</v>
       </c>
       <c r="I207">
-        <v>2216.46</v>
+        <v>51294</v>
       </c>
       <c r="J207">
-        <v>1971.39</v>
+        <v>52669.4</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.35">
@@ -6527,22 +6548,22 @@
         <v>5</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E208" t="s">
         <v>51</v>
       </c>
       <c r="G208">
-        <v>43968</v>
+        <v>2196.16</v>
       </c>
       <c r="H208">
-        <v>49953.5</v>
+        <v>3808.25</v>
       </c>
       <c r="I208">
-        <v>51294</v>
+        <v>8365.4599999999991</v>
       </c>
       <c r="J208">
-        <v>52669.4</v>
+        <v>9513.34</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.35">
@@ -6556,22 +6577,22 @@
         <v>5</v>
       </c>
       <c r="D209" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E209" t="s">
         <v>51</v>
       </c>
       <c r="G209">
-        <v>2196.16</v>
+        <v>578.25</v>
       </c>
       <c r="H209">
-        <v>3808.25</v>
+        <v>516.39</v>
       </c>
       <c r="I209">
-        <v>8365.4599999999991</v>
+        <v>6393.74</v>
       </c>
       <c r="J209">
-        <v>9513.34</v>
+        <v>9059</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.35">
@@ -6579,28 +6600,28 @@
         <v>79</v>
       </c>
       <c r="B210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E210" t="s">
         <v>51</v>
       </c>
       <c r="G210">
-        <v>578.25</v>
+        <v>1934.76</v>
       </c>
       <c r="H210">
-        <v>516.39</v>
+        <v>1939.32</v>
       </c>
       <c r="I210">
-        <v>6393.74</v>
+        <v>2003.55</v>
       </c>
       <c r="J210">
-        <v>9059</v>
+        <v>1819.18</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.35">
@@ -6614,22 +6635,22 @@
         <v>5</v>
       </c>
       <c r="D211" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E211" t="s">
         <v>51</v>
       </c>
       <c r="G211">
-        <v>1934.76</v>
+        <v>40704.28</v>
       </c>
       <c r="H211">
-        <v>1939.32</v>
+        <v>54702.78</v>
       </c>
       <c r="I211">
-        <v>2003.55</v>
+        <v>60843.47</v>
       </c>
       <c r="J211">
-        <v>1819.18</v>
+        <v>58507.17</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.35">
@@ -6643,22 +6664,22 @@
         <v>5</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E212" t="s">
         <v>51</v>
       </c>
       <c r="G212">
-        <v>40704.28</v>
+        <v>63770.5</v>
       </c>
       <c r="H212">
-        <v>54702.78</v>
+        <v>71023</v>
       </c>
       <c r="I212">
-        <v>60843.47</v>
+        <v>65831</v>
       </c>
       <c r="J212">
-        <v>58507.17</v>
+        <v>65302.7</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.35">
@@ -6672,22 +6693,22 @@
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E213" t="s">
         <v>51</v>
       </c>
       <c r="G213">
-        <v>63770.5</v>
+        <v>2039.14</v>
       </c>
       <c r="H213">
-        <v>71023</v>
+        <v>2257.21</v>
       </c>
       <c r="I213">
-        <v>65831</v>
+        <v>2460.1999999999998</v>
       </c>
       <c r="J213">
-        <v>65302.7</v>
+        <v>2165.37</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.35">
@@ -6701,22 +6722,22 @@
         <v>5</v>
       </c>
       <c r="D214" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E214" t="s">
         <v>51</v>
       </c>
       <c r="G214">
-        <v>2039.14</v>
+        <v>45211.9</v>
       </c>
       <c r="H214">
-        <v>2257.21</v>
+        <v>51954.9</v>
       </c>
       <c r="I214">
-        <v>2460.1999999999998</v>
+        <v>54614.8</v>
       </c>
       <c r="J214">
-        <v>2165.37</v>
+        <v>56342</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.35">
@@ -6730,22 +6751,22 @@
         <v>5</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E215" t="s">
         <v>51</v>
       </c>
       <c r="G215">
-        <v>45211.9</v>
+        <v>2280.42</v>
       </c>
       <c r="H215">
-        <v>51954.9</v>
+        <v>2986.5</v>
       </c>
       <c r="I215">
-        <v>54614.8</v>
+        <v>3296.14</v>
       </c>
       <c r="J215">
-        <v>56342</v>
+        <v>3460.33</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
@@ -6759,22 +6780,22 @@
         <v>5</v>
       </c>
       <c r="D216" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E216" t="s">
         <v>51</v>
       </c>
       <c r="G216">
-        <v>2280.42</v>
+        <v>578.25</v>
       </c>
       <c r="H216">
-        <v>2986.5</v>
+        <v>516.39</v>
       </c>
       <c r="I216">
-        <v>3296.14</v>
+        <v>1098</v>
       </c>
       <c r="J216">
-        <v>3460.33</v>
+        <v>2187.65</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.35">
@@ -6782,28 +6803,28 @@
         <v>79</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
       </c>
       <c r="D217" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E217" t="s">
         <v>51</v>
       </c>
       <c r="G217">
-        <v>578.25</v>
+        <v>1934.76</v>
       </c>
       <c r="H217">
-        <v>516.39</v>
+        <v>2147.94</v>
       </c>
       <c r="I217">
-        <v>1098</v>
+        <v>2212.21</v>
       </c>
       <c r="J217">
-        <v>2187.65</v>
+        <v>2071.14</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.35">
@@ -6817,22 +6838,22 @@
         <v>5</v>
       </c>
       <c r="D218" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E218" t="s">
         <v>51</v>
       </c>
       <c r="G218">
-        <v>1934.76</v>
+        <v>40417.08</v>
       </c>
       <c r="H218">
-        <v>2147.94</v>
+        <v>54316.88</v>
       </c>
       <c r="I218">
-        <v>2212.21</v>
+        <v>59079.47</v>
       </c>
       <c r="J218">
-        <v>2071.14</v>
+        <v>56353.27</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.35">
@@ -6846,22 +6867,22 @@
         <v>5</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E219" t="s">
         <v>51</v>
       </c>
       <c r="G219">
-        <v>40417.08</v>
+        <v>63770.5</v>
       </c>
       <c r="H219">
-        <v>54316.88</v>
+        <v>63770.5</v>
       </c>
       <c r="I219">
-        <v>59079.47</v>
+        <v>53987.3</v>
       </c>
       <c r="J219">
-        <v>56353.27</v>
+        <v>46214.1</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.35">
@@ -6875,22 +6896,22 @@
         <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E220" t="s">
         <v>51</v>
       </c>
       <c r="G220">
-        <v>63770.5</v>
+        <v>2039.14</v>
       </c>
       <c r="H220">
-        <v>63770.5</v>
+        <v>2257.21</v>
       </c>
       <c r="I220">
-        <v>53987.3</v>
+        <v>2354.17</v>
       </c>
       <c r="J220">
-        <v>46214.1</v>
+        <v>2144.86</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
@@ -6904,22 +6925,22 @@
         <v>5</v>
       </c>
       <c r="D221" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E221" t="s">
         <v>51</v>
       </c>
       <c r="G221">
-        <v>2039.14</v>
+        <v>45211.9</v>
       </c>
       <c r="H221">
-        <v>2257.21</v>
+        <v>51575.4</v>
       </c>
       <c r="I221">
-        <v>2354.17</v>
+        <v>52433.4</v>
       </c>
       <c r="J221">
-        <v>2144.86</v>
+        <v>52779.8</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.35">
@@ -6933,22 +6954,22 @@
         <v>5</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E222" t="s">
         <v>51</v>
       </c>
       <c r="G222">
-        <v>45211.9</v>
+        <v>2281.7800000000002</v>
       </c>
       <c r="H222">
-        <v>51575.4</v>
+        <v>4858.6099999999997</v>
       </c>
       <c r="I222">
-        <v>52433.4</v>
+        <v>10198.9</v>
       </c>
       <c r="J222">
-        <v>52779.8</v>
+        <v>16011.3</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.35">
@@ -6962,22 +6983,22 @@
         <v>5</v>
       </c>
       <c r="D223" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E223" t="s">
         <v>51</v>
       </c>
       <c r="G223">
-        <v>2281.7800000000002</v>
+        <v>578.25</v>
       </c>
       <c r="H223">
-        <v>4858.6099999999997</v>
+        <v>1573.55</v>
       </c>
       <c r="I223">
-        <v>10198.9</v>
+        <v>7611.85</v>
       </c>
       <c r="J223">
-        <v>16011.3</v>
+        <v>13976.4</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.35">
@@ -6985,28 +7006,28 @@
         <v>79</v>
       </c>
       <c r="B224" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
       </c>
       <c r="D224" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E224" t="s">
         <v>51</v>
       </c>
       <c r="G224">
-        <v>578.25</v>
+        <v>2029</v>
       </c>
       <c r="H224">
-        <v>1573.55</v>
+        <v>2163.1</v>
       </c>
       <c r="I224">
-        <v>7611.85</v>
+        <v>2310.46</v>
       </c>
       <c r="J224">
-        <v>13976.4</v>
+        <v>2273.25</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.35">
@@ -7020,22 +7041,22 @@
         <v>5</v>
       </c>
       <c r="D225" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E225" t="s">
         <v>51</v>
       </c>
       <c r="G225">
-        <v>2029</v>
+        <v>40635.78</v>
       </c>
       <c r="H225">
-        <v>2163.1</v>
+        <v>54610.78</v>
       </c>
       <c r="I225">
-        <v>2310.46</v>
+        <v>66979.77</v>
       </c>
       <c r="J225">
-        <v>2273.25</v>
+        <v>65838.17</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.35">
@@ -7049,22 +7070,22 @@
         <v>5</v>
       </c>
       <c r="D226" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E226" t="s">
         <v>51</v>
       </c>
       <c r="G226">
-        <v>40635.78</v>
+        <v>63770.5</v>
       </c>
       <c r="H226">
-        <v>54610.78</v>
+        <v>79015.8</v>
       </c>
       <c r="I226">
-        <v>66979.77</v>
+        <v>73734.600000000006</v>
       </c>
       <c r="J226">
-        <v>65838.17</v>
+        <v>74402.3</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.35">
@@ -7078,22 +7099,22 @@
         <v>5</v>
       </c>
       <c r="D227" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E227" t="s">
         <v>51</v>
       </c>
       <c r="G227">
-        <v>63770.5</v>
+        <v>2153.0500000000002</v>
       </c>
       <c r="H227">
-        <v>79015.8</v>
+        <v>2521.7399999999998</v>
       </c>
       <c r="I227">
-        <v>73734.600000000006</v>
+        <v>2715.09</v>
       </c>
       <c r="J227">
-        <v>74402.3</v>
+        <v>2659.14</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.35">
@@ -7107,22 +7128,22 @@
         <v>5</v>
       </c>
       <c r="D228" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E228" t="s">
         <v>51</v>
       </c>
       <c r="G228">
-        <v>2153.0500000000002</v>
+        <v>45211.9</v>
       </c>
       <c r="H228">
-        <v>2521.7399999999998</v>
+        <v>58397.4</v>
       </c>
       <c r="I228">
-        <v>2715.09</v>
+        <v>63116.2</v>
       </c>
       <c r="J228">
-        <v>2659.14</v>
+        <v>68157.2</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.35">
@@ -7136,22 +7157,22 @@
         <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E229" t="s">
         <v>51</v>
       </c>
       <c r="G229">
-        <v>45211.9</v>
+        <v>2430.3000000000002</v>
       </c>
       <c r="H229">
-        <v>58397.4</v>
+        <v>2921.88</v>
       </c>
       <c r="I229">
-        <v>63116.2</v>
+        <v>3184.32</v>
       </c>
       <c r="J229">
-        <v>68157.2</v>
+        <v>5931.69</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.35">
@@ -7165,22 +7186,22 @@
         <v>5</v>
       </c>
       <c r="D230" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E230" t="s">
         <v>51</v>
       </c>
       <c r="G230">
-        <v>2430.3000000000002</v>
+        <v>578.25</v>
       </c>
       <c r="H230">
-        <v>2921.88</v>
+        <v>516.39</v>
       </c>
       <c r="I230">
-        <v>3184.32</v>
+        <v>0</v>
       </c>
       <c r="J230">
-        <v>5931.69</v>
+        <v>4604.58</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.35">
@@ -7188,28 +7209,28 @@
         <v>79</v>
       </c>
       <c r="B231" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
       </c>
       <c r="D231" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E231" t="s">
         <v>51</v>
       </c>
       <c r="G231">
-        <v>578.25</v>
+        <v>2029</v>
       </c>
       <c r="H231">
-        <v>516.39</v>
+        <v>2371.67</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>2518.8000000000002</v>
       </c>
       <c r="J231">
-        <v>4604.58</v>
+        <v>5599.31</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.35">
@@ -7223,22 +7244,22 @@
         <v>5</v>
       </c>
       <c r="D232" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E232" t="s">
         <v>51</v>
       </c>
       <c r="G232">
-        <v>2029</v>
+        <v>40186.980000000003</v>
       </c>
       <c r="H232">
-        <v>2371.67</v>
+        <v>54007.48</v>
       </c>
       <c r="I232">
-        <v>2518.8000000000002</v>
+        <v>52855.67</v>
       </c>
       <c r="J232">
-        <v>5599.31</v>
+        <v>36959.81</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.35">
@@ -7252,22 +7273,22 @@
         <v>5</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E233" t="s">
         <v>51</v>
       </c>
       <c r="G233">
-        <v>40186.980000000003</v>
+        <v>63770.5</v>
       </c>
       <c r="H233">
-        <v>54007.48</v>
+        <v>71885.8</v>
       </c>
       <c r="I233">
-        <v>52855.67</v>
+        <v>62631.1</v>
       </c>
       <c r="J233">
-        <v>36959.81</v>
+        <v>57279.9</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.35">
@@ -7281,22 +7302,22 @@
         <v>5</v>
       </c>
       <c r="D234" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E234" t="s">
         <v>51</v>
       </c>
       <c r="G234">
-        <v>63770.5</v>
+        <v>2153.0500000000002</v>
       </c>
       <c r="H234">
-        <v>71885.8</v>
+        <v>2530.31</v>
       </c>
       <c r="I234">
-        <v>62631.1</v>
+        <v>2727.95</v>
       </c>
       <c r="J234">
-        <v>57279.9</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.35">
@@ -7310,22 +7331,22 @@
         <v>5</v>
       </c>
       <c r="D235" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E235" t="s">
         <v>51</v>
       </c>
       <c r="G235">
-        <v>2153.0500000000002</v>
+        <v>45211.9</v>
       </c>
       <c r="H235">
-        <v>2530.31</v>
+        <v>58031.6</v>
       </c>
       <c r="I235">
-        <v>2727.95</v>
+        <v>61311.8</v>
       </c>
       <c r="J235">
-        <v>2672</v>
+        <v>58668.800000000003</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.35">
@@ -7339,22 +7360,22 @@
         <v>5</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E236" t="s">
         <v>51</v>
       </c>
       <c r="G236">
-        <v>45211.9</v>
+        <v>2715.94</v>
       </c>
       <c r="H236">
-        <v>58031.6</v>
+        <v>5972.51</v>
       </c>
       <c r="I236">
-        <v>61311.8</v>
+        <v>14502.4</v>
       </c>
       <c r="J236">
-        <v>58668.800000000003</v>
+        <v>24588.5</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.35">
@@ -7368,22 +7389,22 @@
         <v>5</v>
       </c>
       <c r="D237" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E237" t="s">
         <v>51</v>
       </c>
       <c r="G237">
-        <v>2715.94</v>
+        <v>578.25</v>
       </c>
       <c r="H237">
-        <v>5972.51</v>
+        <v>2114.0500000000002</v>
       </c>
       <c r="I237">
-        <v>14502.4</v>
+        <v>10374.200000000001</v>
       </c>
       <c r="J237">
-        <v>24588.5</v>
+        <v>20682.2</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.35">
@@ -7391,28 +7412,28 @@
         <v>79</v>
       </c>
       <c r="B238" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
       </c>
       <c r="D238" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E238" t="s">
         <v>51</v>
       </c>
       <c r="G238">
-        <v>578.25</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>2114.0500000000002</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>10374.200000000001</v>
+        <v>4142.75</v>
       </c>
       <c r="J238">
-        <v>20682.2</v>
+        <v>9217.52</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.35">
@@ -7426,22 +7447,22 @@
         <v>5</v>
       </c>
       <c r="D239" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E239" t="s">
         <v>51</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>16056.14</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>17862.02</v>
       </c>
       <c r="I239">
-        <v>4142.75</v>
+        <v>14149.51</v>
       </c>
       <c r="J239">
-        <v>9217.52</v>
+        <v>14547.35</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.35">
@@ -7455,22 +7476,22 @@
         <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E240" t="s">
         <v>51</v>
       </c>
       <c r="G240">
-        <v>16056.14</v>
+        <v>50.69</v>
       </c>
       <c r="H240">
-        <v>17862.02</v>
+        <v>56.07</v>
       </c>
       <c r="I240">
-        <v>14149.51</v>
+        <v>34.32</v>
       </c>
       <c r="J240">
-        <v>14547.35</v>
+        <v>38.659999999999997</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.35">
@@ -7484,22 +7505,22 @@
         <v>5</v>
       </c>
       <c r="D241" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E241" t="s">
         <v>51</v>
       </c>
       <c r="G241">
-        <v>50.69</v>
+        <v>14167.99</v>
       </c>
       <c r="H241">
-        <v>56.07</v>
+        <v>19349.09</v>
       </c>
       <c r="I241">
-        <v>34.32</v>
+        <v>21420.03</v>
       </c>
       <c r="J241">
-        <v>38.659999999999997</v>
+        <v>18791.52</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.35">
@@ -7513,22 +7534,22 @@
         <v>5</v>
       </c>
       <c r="D242" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E242" t="s">
         <v>51</v>
       </c>
       <c r="G242">
-        <v>14167.99</v>
+        <v>2192.4299999999998</v>
       </c>
       <c r="H242">
-        <v>19349.09</v>
+        <v>2088.19</v>
       </c>
       <c r="I242">
-        <v>21420.03</v>
+        <v>3807.61</v>
       </c>
       <c r="J242">
-        <v>18791.52</v>
+        <v>5395.23</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.35">
@@ -7542,22 +7563,22 @@
         <v>5</v>
       </c>
       <c r="D243" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E243" t="s">
         <v>51</v>
       </c>
       <c r="G243">
-        <v>2192.4299999999998</v>
+        <v>399.91</v>
       </c>
       <c r="H243">
-        <v>2088.19</v>
+        <v>356.46</v>
       </c>
       <c r="I243">
-        <v>3807.61</v>
+        <v>1824.56</v>
       </c>
       <c r="J243">
-        <v>5395.23</v>
+        <v>3230.07</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.35">
@@ -7571,22 +7592,22 @@
         <v>5</v>
       </c>
       <c r="D244" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E244" t="s">
         <v>51</v>
       </c>
       <c r="G244">
-        <v>399.91</v>
+        <v>121.5</v>
       </c>
       <c r="H244">
-        <v>356.46</v>
+        <v>121.5</v>
       </c>
       <c r="I244">
-        <v>1824.56</v>
+        <v>97.56</v>
       </c>
       <c r="J244">
-        <v>3230.07</v>
+        <v>25.35</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.35">
@@ -7600,22 +7621,22 @@
         <v>5</v>
       </c>
       <c r="D245" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E245" t="s">
         <v>51</v>
       </c>
       <c r="G245">
-        <v>121.5</v>
+        <v>94.5</v>
       </c>
       <c r="H245">
-        <v>121.5</v>
+        <v>94.5</v>
       </c>
       <c r="I245">
-        <v>97.56</v>
+        <v>47.31</v>
       </c>
       <c r="J245">
-        <v>25.35</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.35">
@@ -7629,22 +7650,22 @@
         <v>5</v>
       </c>
       <c r="D246" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E246" t="s">
         <v>51</v>
       </c>
       <c r="G246">
-        <v>94.5</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>94.5</v>
+        <v>0</v>
       </c>
       <c r="I246">
-        <v>47.31</v>
+        <v>490.73</v>
       </c>
       <c r="J246">
-        <v>5.93</v>
+        <v>616.54999999999995</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.35">
@@ -7652,13 +7673,13 @@
         <v>79</v>
       </c>
       <c r="B247" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
       </c>
       <c r="D247" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E247" t="s">
         <v>51</v>
@@ -7670,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="I247">
-        <v>490.73</v>
+        <v>0</v>
       </c>
       <c r="J247">
-        <v>616.54999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.35">
@@ -7687,22 +7708,22 @@
         <v>5</v>
       </c>
       <c r="D248" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E248" t="s">
         <v>51</v>
       </c>
       <c r="G248">
-        <v>0</v>
+        <v>15986.11</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>16499.060000000001</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>11780.37</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>14001.72</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.35">
@@ -7716,22 +7737,22 @@
         <v>5</v>
       </c>
       <c r="D249" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E249" t="s">
         <v>51</v>
       </c>
       <c r="G249">
-        <v>15986.11</v>
+        <v>626.42999999999995</v>
       </c>
       <c r="H249">
-        <v>16499.060000000001</v>
+        <v>992.42</v>
       </c>
       <c r="I249">
-        <v>11780.37</v>
+        <v>546.83000000000004</v>
       </c>
       <c r="J249">
-        <v>14001.72</v>
+        <v>1498.45</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.35">
@@ -7745,22 +7766,22 @@
         <v>5</v>
       </c>
       <c r="D250" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E250" t="s">
         <v>51</v>
       </c>
       <c r="G250">
-        <v>626.42999999999995</v>
+        <v>8888.49</v>
       </c>
       <c r="H250">
-        <v>992.42</v>
+        <v>14008.77</v>
       </c>
       <c r="I250">
-        <v>546.83000000000004</v>
+        <v>5457.07</v>
       </c>
       <c r="J250">
-        <v>1498.45</v>
+        <v>14671.81</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.35">
@@ -7774,22 +7795,22 @@
         <v>5</v>
       </c>
       <c r="D251" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E251" t="s">
         <v>51</v>
       </c>
       <c r="G251">
-        <v>8888.49</v>
+        <v>6416.1</v>
       </c>
       <c r="H251">
-        <v>14008.77</v>
+        <v>6264.62</v>
       </c>
       <c r="I251">
-        <v>5457.07</v>
+        <v>6264.77</v>
       </c>
       <c r="J251">
-        <v>14671.81</v>
+        <v>5229.6099999999997</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.35">
@@ -7803,22 +7824,22 @@
         <v>5</v>
       </c>
       <c r="D252" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E252" t="s">
         <v>51</v>
       </c>
       <c r="G252">
-        <v>6416.1</v>
+        <v>496.62</v>
       </c>
       <c r="H252">
-        <v>6264.62</v>
+        <v>459.28</v>
       </c>
       <c r="I252">
-        <v>6264.77</v>
+        <v>5608.69</v>
       </c>
       <c r="J252">
-        <v>5229.6099999999997</v>
+        <v>7526.65</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.35">
@@ -7832,22 +7853,22 @@
         <v>5</v>
       </c>
       <c r="D253" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E253" t="s">
         <v>51</v>
       </c>
       <c r="G253">
-        <v>496.62</v>
+        <v>6</v>
       </c>
       <c r="H253">
-        <v>459.28</v>
+        <v>1443.8</v>
       </c>
       <c r="I253">
-        <v>5608.69</v>
+        <v>5735.73</v>
       </c>
       <c r="J253">
-        <v>7526.65</v>
+        <v>5820.03</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.35">
@@ -7861,22 +7882,22 @@
         <v>5</v>
       </c>
       <c r="D254" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E254" t="s">
         <v>51</v>
       </c>
       <c r="G254">
-        <v>6</v>
+        <v>121.5</v>
       </c>
       <c r="H254">
-        <v>1443.8</v>
+        <v>121.5</v>
       </c>
       <c r="I254">
-        <v>5735.73</v>
+        <v>97.56</v>
       </c>
       <c r="J254">
-        <v>5820.03</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.35">
@@ -7890,22 +7911,22 @@
         <v>5</v>
       </c>
       <c r="D255" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E255" t="s">
         <v>51</v>
       </c>
       <c r="G255">
-        <v>121.5</v>
+        <v>94.5</v>
       </c>
       <c r="H255">
-        <v>121.5</v>
+        <v>99</v>
       </c>
       <c r="I255">
-        <v>97.56</v>
+        <v>54.98</v>
       </c>
       <c r="J255">
-        <v>31.22</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.35">
@@ -7913,28 +7934,28 @@
         <v>79</v>
       </c>
       <c r="B256" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
       </c>
       <c r="D256" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E256" t="s">
         <v>51</v>
       </c>
       <c r="G256">
-        <v>94.5</v>
+        <v>0</v>
       </c>
       <c r="H256">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I256">
-        <v>54.98</v>
+        <v>4923.7</v>
       </c>
       <c r="J256">
-        <v>5.19</v>
+        <v>10942.74</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.35">
@@ -7948,22 +7969,22 @@
         <v>5</v>
       </c>
       <c r="D257" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E257" t="s">
         <v>51</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>16486.77</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>18122.22</v>
       </c>
       <c r="I257">
-        <v>4923.7</v>
+        <v>14321.08</v>
       </c>
       <c r="J257">
-        <v>10942.74</v>
+        <v>13869</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.35">
@@ -7977,22 +7998,22 @@
         <v>5</v>
       </c>
       <c r="D258" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E258" t="s">
         <v>51</v>
       </c>
       <c r="G258">
-        <v>16486.77</v>
+        <v>882.88</v>
       </c>
       <c r="H258">
-        <v>18122.22</v>
+        <v>1012.52</v>
       </c>
       <c r="I258">
-        <v>14321.08</v>
+        <v>1004.3</v>
       </c>
       <c r="J258">
-        <v>13869</v>
+        <v>1388.6</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.35">
@@ -8006,22 +8027,22 @@
         <v>5</v>
       </c>
       <c r="D259" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E259" t="s">
         <v>51</v>
       </c>
       <c r="G259">
-        <v>882.88</v>
+        <v>8660.2900000000009</v>
       </c>
       <c r="H259">
-        <v>1012.52</v>
+        <v>13676</v>
       </c>
       <c r="I259">
-        <v>1004.3</v>
+        <v>15876.11</v>
       </c>
       <c r="J259">
-        <v>1388.6</v>
+        <v>14754.36</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.35">
@@ -8035,22 +8056,22 @@
         <v>5</v>
       </c>
       <c r="D260" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E260" t="s">
         <v>51</v>
       </c>
       <c r="G260">
-        <v>8660.2900000000009</v>
+        <v>7097.82</v>
       </c>
       <c r="H260">
-        <v>13676</v>
+        <v>7027.32</v>
       </c>
       <c r="I260">
-        <v>15876.11</v>
+        <v>7183.55</v>
       </c>
       <c r="J260">
-        <v>14754.36</v>
+        <v>5904.47</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.35">
@@ -8064,22 +8085,22 @@
         <v>5</v>
       </c>
       <c r="D261" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E261" t="s">
         <v>51</v>
       </c>
       <c r="G261">
-        <v>7097.82</v>
+        <v>367.08</v>
       </c>
       <c r="H261">
-        <v>7027.32</v>
+        <v>327.81</v>
       </c>
       <c r="I261">
-        <v>7183.55</v>
+        <v>879.78</v>
       </c>
       <c r="J261">
-        <v>5904.47</v>
+        <v>1874.24</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.35">
@@ -8093,22 +8114,22 @@
         <v>5</v>
       </c>
       <c r="D262" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E262" t="s">
         <v>51</v>
       </c>
       <c r="G262">
-        <v>367.08</v>
+        <v>25.86</v>
       </c>
       <c r="H262">
-        <v>327.81</v>
+        <v>465.98</v>
       </c>
       <c r="I262">
-        <v>879.78</v>
+        <v>1247.29</v>
       </c>
       <c r="J262">
-        <v>1874.24</v>
+        <v>727.88</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.35">
@@ -8122,22 +8143,22 @@
         <v>5</v>
       </c>
       <c r="D263" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E263" t="s">
         <v>51</v>
       </c>
       <c r="G263">
-        <v>25.86</v>
+        <v>121.5</v>
       </c>
       <c r="H263">
-        <v>465.98</v>
+        <v>121.5</v>
       </c>
       <c r="I263">
-        <v>1247.29</v>
+        <v>118.8</v>
       </c>
       <c r="J263">
-        <v>727.88</v>
+        <v>44.57</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.35">
@@ -8151,22 +8172,22 @@
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E264" t="s">
         <v>51</v>
       </c>
       <c r="G264">
-        <v>121.5</v>
+        <v>94.5</v>
       </c>
       <c r="H264">
-        <v>121.5</v>
+        <v>103.5</v>
       </c>
       <c r="I264">
-        <v>118.8</v>
+        <v>94.5</v>
       </c>
       <c r="J264">
-        <v>44.57</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.35">
@@ -8174,28 +8195,28 @@
         <v>79</v>
       </c>
       <c r="B265" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
       </c>
       <c r="D265" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E265" t="s">
         <v>51</v>
       </c>
       <c r="G265">
-        <v>94.5</v>
+        <v>0</v>
       </c>
       <c r="H265">
-        <v>103.5</v>
+        <v>628</v>
       </c>
       <c r="I265">
-        <v>94.5</v>
+        <v>630.84</v>
       </c>
       <c r="J265">
-        <v>22.96</v>
+        <v>615.09</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.35">
@@ -8209,22 +8230,22 @@
         <v>5</v>
       </c>
       <c r="D266" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E266" t="s">
         <v>51</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>16897.29</v>
       </c>
       <c r="H266">
-        <v>628</v>
+        <v>14289.9</v>
       </c>
       <c r="I266">
-        <v>630.84</v>
+        <v>8164.25</v>
       </c>
       <c r="J266">
-        <v>615.09</v>
+        <v>3906.04</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.35">
@@ -8238,22 +8259,22 @@
         <v>5</v>
       </c>
       <c r="D267" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E267" t="s">
         <v>51</v>
       </c>
       <c r="G267">
-        <v>16897.29</v>
+        <v>882.99</v>
       </c>
       <c r="H267">
-        <v>14289.9</v>
+        <v>1001.7</v>
       </c>
       <c r="I267">
-        <v>8164.25</v>
+        <v>380.85</v>
       </c>
       <c r="J267">
-        <v>3906.04</v>
+        <v>295.67</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.35">
@@ -8267,22 +8288,22 @@
         <v>5</v>
       </c>
       <c r="D268" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E268" t="s">
         <v>51</v>
       </c>
       <c r="G268">
-        <v>882.99</v>
+        <v>8625.9699999999993</v>
       </c>
       <c r="H268">
-        <v>1001.7</v>
+        <v>13494.63</v>
       </c>
       <c r="I268">
-        <v>380.85</v>
+        <v>15167.22</v>
       </c>
       <c r="J268">
-        <v>295.67</v>
+        <v>13874.77</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.35">
@@ -8296,22 +8317,22 @@
         <v>5</v>
       </c>
       <c r="D269" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E269" t="s">
         <v>51</v>
       </c>
       <c r="G269">
-        <v>8625.9699999999993</v>
+        <v>6468.46</v>
       </c>
       <c r="H269">
-        <v>13494.63</v>
+        <v>6508.47</v>
       </c>
       <c r="I269">
-        <v>15167.22</v>
+        <v>6035.91</v>
       </c>
       <c r="J269">
-        <v>13874.77</v>
+        <v>5417.87</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.35">
@@ -8325,22 +8346,22 @@
         <v>5</v>
       </c>
       <c r="D270" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E270" t="s">
         <v>51</v>
       </c>
       <c r="G270">
-        <v>6468.46</v>
+        <v>500.8</v>
       </c>
       <c r="H270">
-        <v>6508.47</v>
+        <v>1479.33</v>
       </c>
       <c r="I270">
-        <v>6035.91</v>
+        <v>6903.99</v>
       </c>
       <c r="J270">
-        <v>5417.87</v>
+        <v>12024.49</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.35">
@@ -8354,22 +8375,22 @@
         <v>5</v>
       </c>
       <c r="D271" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E271" t="s">
         <v>51</v>
       </c>
       <c r="G271">
-        <v>500.8</v>
+        <v>27.3</v>
       </c>
       <c r="H271">
-        <v>1479.33</v>
+        <v>2449.83</v>
       </c>
       <c r="I271">
-        <v>6903.99</v>
+        <v>7708.9</v>
       </c>
       <c r="J271">
-        <v>12024.49</v>
+        <v>12839.51</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.35">
@@ -8383,22 +8404,22 @@
         <v>5</v>
       </c>
       <c r="D272" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E272" t="s">
         <v>51</v>
       </c>
       <c r="G272">
-        <v>27.3</v>
+        <v>121.5</v>
       </c>
       <c r="H272">
-        <v>2449.83</v>
+        <v>121.5</v>
       </c>
       <c r="I272">
-        <v>7708.9</v>
+        <v>118.8</v>
       </c>
       <c r="J272">
-        <v>12839.51</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.35">
@@ -8412,22 +8433,22 @@
         <v>5</v>
       </c>
       <c r="D273" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E273" t="s">
         <v>51</v>
       </c>
       <c r="G273">
-        <v>121.5</v>
+        <v>94.5</v>
       </c>
       <c r="H273">
-        <v>121.5</v>
+        <v>103.5</v>
       </c>
       <c r="I273">
-        <v>118.8</v>
+        <v>94.5</v>
       </c>
       <c r="J273">
-        <v>37.39</v>
+        <v>38.119999999999997</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.35">
@@ -8435,28 +8456,28 @@
         <v>79</v>
       </c>
       <c r="B274" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
       </c>
       <c r="D274" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E274" t="s">
         <v>51</v>
       </c>
       <c r="G274">
-        <v>94.5</v>
+        <v>3292.74</v>
       </c>
       <c r="H274">
-        <v>103.5</v>
+        <v>4078.98</v>
       </c>
       <c r="I274">
-        <v>94.5</v>
+        <v>10837.25</v>
       </c>
       <c r="J274">
-        <v>38.119999999999997</v>
+        <v>10942.74</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.35">
@@ -8470,22 +8491,22 @@
         <v>5</v>
       </c>
       <c r="D275" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E275" t="s">
         <v>51</v>
       </c>
       <c r="G275">
-        <v>3292.74</v>
+        <v>15405.69</v>
       </c>
       <c r="H275">
-        <v>4078.98</v>
+        <v>19733.14</v>
       </c>
       <c r="I275">
-        <v>10837.25</v>
+        <v>14937.03</v>
       </c>
       <c r="J275">
-        <v>10942.74</v>
+        <v>14111.05</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.35">
@@ -8499,22 +8520,22 @@
         <v>5</v>
       </c>
       <c r="D276" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E276" t="s">
         <v>51</v>
       </c>
       <c r="G276">
-        <v>15405.69</v>
+        <v>871.09</v>
       </c>
       <c r="H276">
-        <v>19733.14</v>
+        <v>934.11</v>
       </c>
       <c r="I276">
-        <v>14937.03</v>
+        <v>785.55</v>
       </c>
       <c r="J276">
-        <v>14111.05</v>
+        <v>1431.43</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.35">
@@ -8528,22 +8549,22 @@
         <v>5</v>
       </c>
       <c r="D277" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E277" t="s">
         <v>51</v>
       </c>
       <c r="G277">
-        <v>871.09</v>
+        <v>8109.91</v>
       </c>
       <c r="H277">
-        <v>934.11</v>
+        <v>12326.1</v>
       </c>
       <c r="I277">
-        <v>785.55</v>
+        <v>16538.14</v>
       </c>
       <c r="J277">
-        <v>1431.43</v>
+        <v>15394.1</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.35">
@@ -8557,22 +8578,22 @@
         <v>5</v>
       </c>
       <c r="D278" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E278" t="s">
         <v>51</v>
       </c>
       <c r="G278">
-        <v>8109.91</v>
+        <v>7236.51</v>
       </c>
       <c r="H278">
-        <v>12326.1</v>
+        <v>7091.17</v>
       </c>
       <c r="I278">
-        <v>16538.14</v>
+        <v>7161.36</v>
       </c>
       <c r="J278">
-        <v>15394.1</v>
+        <v>6315.62</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.35">
@@ -8586,22 +8607,22 @@
         <v>5</v>
       </c>
       <c r="D279" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E279" t="s">
         <v>51</v>
       </c>
       <c r="G279">
-        <v>7236.51</v>
+        <v>464.07</v>
       </c>
       <c r="H279">
-        <v>7091.17</v>
+        <v>312.49</v>
       </c>
       <c r="I279">
-        <v>7161.36</v>
+        <v>0</v>
       </c>
       <c r="J279">
-        <v>6315.62</v>
+        <v>4337.0200000000004</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.35">
@@ -8615,22 +8636,22 @@
         <v>5</v>
       </c>
       <c r="D280" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E280" t="s">
         <v>51</v>
       </c>
       <c r="G280">
-        <v>464.07</v>
+        <v>29.81</v>
       </c>
       <c r="H280">
-        <v>312.49</v>
+        <v>29.81</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>23.81</v>
       </c>
       <c r="J280">
-        <v>4337.0200000000004</v>
+        <v>2762.06</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.35">
@@ -8644,22 +8665,22 @@
         <v>5</v>
       </c>
       <c r="D281" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E281" t="s">
         <v>51</v>
       </c>
       <c r="G281">
-        <v>29.81</v>
+        <v>123</v>
       </c>
       <c r="H281">
-        <v>29.81</v>
+        <v>123</v>
       </c>
       <c r="I281">
-        <v>23.81</v>
+        <v>120.3</v>
       </c>
       <c r="J281">
-        <v>2762.06</v>
+        <v>57.84</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.35">
@@ -8673,22 +8694,22 @@
         <v>5</v>
       </c>
       <c r="D282" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E282" t="s">
         <v>51</v>
       </c>
       <c r="G282">
-        <v>123</v>
+        <v>94.5</v>
       </c>
       <c r="H282">
-        <v>123</v>
+        <v>103.5</v>
       </c>
       <c r="I282">
-        <v>120.3</v>
+        <v>94.5</v>
       </c>
       <c r="J282">
-        <v>57.84</v>
+        <v>44.59</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.35">
@@ -8696,28 +8717,28 @@
         <v>79</v>
       </c>
       <c r="B283" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
       </c>
       <c r="D283" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="E283" t="s">
         <v>51</v>
       </c>
       <c r="G283">
-        <v>94.5</v>
+        <v>3257.39</v>
       </c>
       <c r="H283">
-        <v>103.5</v>
+        <v>3122.16</v>
       </c>
       <c r="I283">
-        <v>94.5</v>
+        <v>3121.78</v>
       </c>
       <c r="J283">
-        <v>44.59</v>
+        <v>3054.29</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.35">
@@ -8731,22 +8752,22 @@
         <v>5</v>
       </c>
       <c r="D284" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E284" t="s">
         <v>51</v>
       </c>
       <c r="G284">
-        <v>3257.39</v>
+        <v>15357.67</v>
       </c>
       <c r="H284">
-        <v>3122.16</v>
+        <v>15938.43</v>
       </c>
       <c r="I284">
-        <v>3121.78</v>
+        <v>9098.39</v>
       </c>
       <c r="J284">
-        <v>3054.29</v>
+        <v>5187.28</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.35">
@@ -8760,22 +8781,22 @@
         <v>5</v>
       </c>
       <c r="D285" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E285" t="s">
         <v>51</v>
       </c>
       <c r="G285">
-        <v>15357.67</v>
+        <v>641.17999999999995</v>
       </c>
       <c r="H285">
-        <v>15938.43</v>
+        <v>927.93</v>
       </c>
       <c r="I285">
-        <v>9098.39</v>
+        <v>290.11</v>
       </c>
       <c r="J285">
-        <v>5187.28</v>
+        <v>74.42</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.35">
@@ -8789,22 +8810,22 @@
         <v>5</v>
       </c>
       <c r="D286" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E286" t="s">
         <v>51</v>
       </c>
       <c r="G286">
-        <v>641.17999999999995</v>
+        <v>8023.48</v>
       </c>
       <c r="H286">
-        <v>927.93</v>
+        <v>12042.57</v>
       </c>
       <c r="I286">
-        <v>290.11</v>
+        <v>10417.83</v>
       </c>
       <c r="J286">
-        <v>74.42</v>
+        <v>2615.02</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.35">
@@ -8818,22 +8839,22 @@
         <v>5</v>
       </c>
       <c r="D287" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E287" t="s">
         <v>51</v>
       </c>
       <c r="G287">
-        <v>8023.48</v>
+        <v>6546.55</v>
       </c>
       <c r="H287">
-        <v>12042.57</v>
+        <v>6327.15</v>
       </c>
       <c r="I287">
-        <v>10417.83</v>
+        <v>5735.03</v>
       </c>
       <c r="J287">
-        <v>2615.02</v>
+        <v>5298.61</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.35">
@@ -8847,22 +8868,22 @@
         <v>5</v>
       </c>
       <c r="D288" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E288" t="s">
         <v>51</v>
       </c>
       <c r="G288">
-        <v>6546.55</v>
+        <v>518.51</v>
       </c>
       <c r="H288">
-        <v>6327.15</v>
+        <v>1960.87</v>
       </c>
       <c r="I288">
-        <v>5735.03</v>
+        <v>9575.35</v>
       </c>
       <c r="J288">
-        <v>5298.61</v>
+        <v>18017.73</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.35">
@@ -8876,22 +8897,22 @@
         <v>5</v>
       </c>
       <c r="D289" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E289" t="s">
         <v>51</v>
       </c>
       <c r="G289">
-        <v>518.51</v>
+        <v>332.5</v>
       </c>
       <c r="H289">
-        <v>1960.87</v>
+        <v>3262.5</v>
       </c>
       <c r="I289">
-        <v>9575.35</v>
+        <v>11426.6</v>
       </c>
       <c r="J289">
-        <v>18017.73</v>
+        <v>20811.560000000001</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.35">
@@ -8905,22 +8926,22 @@
         <v>5</v>
       </c>
       <c r="D290" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E290" t="s">
         <v>51</v>
       </c>
       <c r="G290">
-        <v>332.5</v>
+        <v>123</v>
       </c>
       <c r="H290">
-        <v>3262.5</v>
+        <v>126</v>
       </c>
       <c r="I290">
-        <v>11426.6</v>
+        <v>124.8</v>
       </c>
       <c r="J290">
-        <v>20811.560000000001</v>
+        <v>62.34</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.35">
@@ -8934,51 +8955,51 @@
         <v>5</v>
       </c>
       <c r="D291" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E291" t="s">
         <v>51</v>
       </c>
       <c r="G291">
-        <v>123</v>
+        <v>94.5</v>
       </c>
       <c r="H291">
-        <v>126</v>
+        <v>103.5</v>
       </c>
       <c r="I291">
-        <v>124.8</v>
+        <v>94.5</v>
       </c>
       <c r="J291">
-        <v>62.34</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B292" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
       </c>
       <c r="D292" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="E292" t="s">
-        <v>51</v>
-      </c>
-      <c r="G292">
-        <v>94.5</v>
-      </c>
-      <c r="H292">
-        <v>103.5</v>
-      </c>
-      <c r="I292">
-        <v>94.5</v>
-      </c>
-      <c r="J292">
-        <v>54.3</v>
+        <v>18</v>
+      </c>
+      <c r="G292" s="1">
+        <v>70.931299999999965</v>
+      </c>
+      <c r="H292" s="1">
+        <v>20.279799999999998</v>
+      </c>
+      <c r="I292" s="1">
+        <v>36.901421666666664</v>
+      </c>
+      <c r="J292" s="1">
+        <v>29.00198833333333</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.35">
@@ -8992,22 +9013,22 @@
         <v>5</v>
       </c>
       <c r="D293" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E293" t="s">
         <v>18</v>
       </c>
       <c r="G293" s="1">
-        <v>70.931299999999965</v>
+        <v>78.094399999999965</v>
       </c>
       <c r="H293" s="1">
-        <v>20.279799999999998</v>
+        <v>93.375835555555554</v>
       </c>
       <c r="I293" s="1">
-        <v>36.901421666666664</v>
+        <v>97.148805555555555</v>
       </c>
       <c r="J293" s="1">
-        <v>29.00198833333333</v>
+        <v>97.761628888888865</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.35">
@@ -9021,22 +9042,22 @@
         <v>5</v>
       </c>
       <c r="D294" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E294" t="s">
         <v>18</v>
       </c>
       <c r="G294" s="1">
-        <v>78.094399999999965</v>
+        <v>105.81199999999998</v>
       </c>
       <c r="H294" s="1">
-        <v>93.375835555555554</v>
+        <v>169.97180305555554</v>
       </c>
       <c r="I294" s="1">
-        <v>97.148805555555555</v>
+        <v>247.92955305555554</v>
       </c>
       <c r="J294" s="1">
-        <v>97.761628888888865</v>
+        <v>334.56918277777777</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.35">
@@ -9050,22 +9071,22 @@
         <v>5</v>
       </c>
       <c r="D295" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E295" t="s">
         <v>18</v>
       </c>
       <c r="G295" s="1">
-        <v>105.81199999999998</v>
+        <v>10.950199999999993</v>
       </c>
       <c r="H295" s="1">
-        <v>169.97180305555554</v>
+        <v>28.294742222222219</v>
       </c>
       <c r="I295" s="1">
-        <v>247.92955305555554</v>
+        <v>44.938742222222217</v>
       </c>
       <c r="J295" s="1">
-        <v>334.56918277777777</v>
+        <v>61.582742222222215</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.35">
@@ -9079,22 +9100,22 @@
         <v>5</v>
       </c>
       <c r="D296" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E296" t="s">
         <v>18</v>
       </c>
       <c r="G296" s="1">
-        <v>10.950199999999993</v>
+        <v>24.828199999999981</v>
       </c>
       <c r="H296" s="1">
-        <v>28.294742222222219</v>
+        <v>57.815999999999995</v>
       </c>
       <c r="I296" s="1">
-        <v>44.938742222222217</v>
+        <v>86.72399999999999</v>
       </c>
       <c r="J296" s="1">
-        <v>61.582742222222215</v>
+        <v>115.63199999999999</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.35">
@@ -9108,22 +9129,19 @@
         <v>5</v>
       </c>
       <c r="D297" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E297" t="s">
         <v>18</v>
       </c>
-      <c r="G297" s="1">
-        <v>24.828199999999981</v>
-      </c>
       <c r="H297" s="1">
-        <v>57.815999999999995</v>
+        <v>39.525154722222219</v>
       </c>
       <c r="I297" s="1">
-        <v>86.72399999999999</v>
+        <v>39.525154722222219</v>
       </c>
       <c r="J297" s="1">
-        <v>115.63199999999999</v>
+        <v>39.525154722222219</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.35">
@@ -9137,19 +9155,22 @@
         <v>5</v>
       </c>
       <c r="D298" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E298" t="s">
         <v>18</v>
       </c>
+      <c r="G298" s="1">
+        <v>16.086999999999996</v>
+      </c>
       <c r="H298" s="1">
-        <v>39.525154722222219</v>
+        <v>30.736597699999997</v>
       </c>
       <c r="I298" s="1">
-        <v>39.525154722222219</v>
+        <v>37.832226588888886</v>
       </c>
       <c r="J298" s="1">
-        <v>39.525154722222219</v>
+        <v>44.927855477777769</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
@@ -9157,28 +9178,28 @@
         <v>100</v>
       </c>
       <c r="B299" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
       </c>
       <c r="D299" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E299" t="s">
         <v>18</v>
       </c>
       <c r="G299" s="1">
-        <v>16.086999999999996</v>
+        <v>70.931299999999965</v>
       </c>
       <c r="H299" s="1">
-        <v>30.736597699999997</v>
+        <v>13.455299527777775</v>
       </c>
       <c r="I299" s="1">
-        <v>37.832226588888886</v>
+        <v>22.188299777777779</v>
       </c>
       <c r="J299" s="1">
-        <v>44.927855477777769</v>
+        <v>26.733476388888889</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.35">
@@ -9192,22 +9213,22 @@
         <v>5</v>
       </c>
       <c r="D300" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E300" t="s">
         <v>18</v>
       </c>
       <c r="G300" s="1">
-        <v>70.931299999999965</v>
+        <v>78.094399999999965</v>
       </c>
       <c r="H300" s="1">
-        <v>13.455299527777775</v>
+        <v>94.733722222222212</v>
       </c>
       <c r="I300" s="1">
-        <v>22.188299777777779</v>
+        <v>96.40374222222222</v>
       </c>
       <c r="J300" s="1">
-        <v>26.733476388888889</v>
+        <v>97.761628888888879</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.35">
@@ -9221,22 +9242,22 @@
         <v>5</v>
       </c>
       <c r="D301" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E301" t="s">
         <v>18</v>
       </c>
       <c r="G301" s="1">
-        <v>78.094399999999965</v>
+        <v>105.81199999999998</v>
       </c>
       <c r="H301" s="1">
-        <v>94.733722222222212</v>
+        <v>163.71938222222221</v>
       </c>
       <c r="I301" s="1">
-        <v>96.40374222222222</v>
+        <v>192.16715322222223</v>
       </c>
       <c r="J301" s="1">
-        <v>97.761628888888879</v>
+        <v>215.66658694444445</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
@@ -9250,22 +9271,22 @@
         <v>5</v>
       </c>
       <c r="D302" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E302" t="s">
         <v>18</v>
       </c>
       <c r="G302" s="1">
-        <v>105.81199999999998</v>
+        <v>10.950199999999993</v>
       </c>
       <c r="H302" s="1">
-        <v>163.71938222222221</v>
+        <v>30.791371111111108</v>
       </c>
       <c r="I302" s="1">
-        <v>192.16715322222223</v>
+        <v>55.757371111111105</v>
       </c>
       <c r="J302" s="1">
-        <v>215.66658694444445</v>
+        <v>80.723371111111106</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.35">
@@ -9279,22 +9300,22 @@
         <v>5</v>
       </c>
       <c r="D303" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E303" t="s">
         <v>18</v>
       </c>
       <c r="G303" s="1">
-        <v>10.950199999999993</v>
+        <v>24.828199999999981</v>
       </c>
       <c r="H303" s="1">
-        <v>30.791371111111108</v>
+        <v>57.815999999999995</v>
       </c>
       <c r="I303" s="1">
-        <v>55.757371111111105</v>
+        <v>101.178</v>
       </c>
       <c r="J303" s="1">
-        <v>80.723371111111106</v>
+        <v>144.54</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.35">
@@ -9308,22 +9329,20 @@
         <v>5</v>
       </c>
       <c r="D304" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E304" t="s">
         <v>18</v>
       </c>
-      <c r="G304" s="1">
-        <v>24.828199999999981</v>
-      </c>
+      <c r="G304" s="1"/>
       <c r="H304" s="1">
-        <v>57.815999999999995</v>
+        <v>48.747633055555553</v>
       </c>
       <c r="I304" s="1">
-        <v>101.178</v>
+        <v>85.473006111111104</v>
       </c>
       <c r="J304" s="1">
-        <v>144.54</v>
+        <v>112.64653055555554</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.35">
@@ -9337,20 +9356,22 @@
         <v>5</v>
       </c>
       <c r="D305" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E305" t="s">
         <v>18</v>
       </c>
-      <c r="G305" s="1"/>
+      <c r="G305" s="1">
+        <v>16.086999999999996</v>
+      </c>
       <c r="H305" s="1">
-        <v>48.747633055555553</v>
+        <v>30.736597699999997</v>
       </c>
       <c r="I305" s="1">
-        <v>85.473006111111104</v>
+        <v>37.832226588888886</v>
       </c>
       <c r="J305" s="1">
-        <v>112.64653055555554</v>
+        <v>44.927855477777769</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.35">
@@ -9358,28 +9379,28 @@
         <v>100</v>
       </c>
       <c r="B306" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
       </c>
       <c r="D306" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="E306" t="s">
         <v>18</v>
       </c>
       <c r="G306" s="1">
-        <v>16.086999999999996</v>
+        <v>70.931299999999965</v>
       </c>
       <c r="H306" s="1">
-        <v>30.736597699999997</v>
+        <v>50.568914421944442</v>
       </c>
       <c r="I306" s="1">
-        <v>37.832226588888886</v>
+        <v>25.044006388888889</v>
       </c>
       <c r="J306" s="1">
-        <v>44.927855477777769</v>
+        <v>11.707150277777776</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.35">
@@ -9393,22 +9414,22 @@
         <v>5</v>
       </c>
       <c r="D307" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="E307" t="s">
         <v>18</v>
       </c>
       <c r="G307" s="1">
-        <v>70.931299999999965</v>
+        <v>78.094399999999965</v>
       </c>
       <c r="H307" s="1">
-        <v>50.568914421944442</v>
+        <v>97.449351111111099</v>
       </c>
       <c r="I307" s="1">
-        <v>25.044006388888889</v>
+        <v>97.761628888888879</v>
       </c>
       <c r="J307" s="1">
-        <v>11.707150277777776</v>
+        <v>97.761628888888879</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.35">
@@ -9422,22 +9443,22 @@
         <v>5</v>
       </c>
       <c r="D308" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E308" t="s">
         <v>18</v>
       </c>
       <c r="G308" s="1">
-        <v>78.094399999999965</v>
+        <v>105.81199999999998</v>
       </c>
       <c r="H308" s="1">
-        <v>97.449351111111099</v>
+        <v>112.65537833333333</v>
       </c>
       <c r="I308" s="1">
-        <v>97.761628888888879</v>
+        <v>98.453305388888879</v>
       </c>
       <c r="J308" s="1">
-        <v>97.761628888888879</v>
+        <v>52.279945611111103</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.35">
@@ -9451,22 +9472,22 @@
         <v>5</v>
       </c>
       <c r="D309" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E309" t="s">
         <v>18</v>
       </c>
       <c r="G309" s="1">
-        <v>105.81199999999998</v>
+        <v>10.950199999999993</v>
       </c>
       <c r="H309" s="1">
-        <v>112.65537833333333</v>
+        <v>38.281257777777775</v>
       </c>
       <c r="I309" s="1">
-        <v>98.453305388888879</v>
+        <v>88.21325777777777</v>
       </c>
       <c r="J309" s="1">
-        <v>52.279945611111103</v>
+        <v>138.14525833333332</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.35">
@@ -9480,22 +9501,22 @@
         <v>5</v>
       </c>
       <c r="D310" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E310" t="s">
         <v>18</v>
       </c>
       <c r="G310" s="1">
-        <v>10.950199999999993</v>
+        <v>24.828199999999981</v>
       </c>
       <c r="H310" s="1">
-        <v>38.281257777777775</v>
+        <v>57.815999999999995</v>
       </c>
       <c r="I310" s="1">
-        <v>88.21325777777777</v>
+        <v>144.54</v>
       </c>
       <c r="J310" s="1">
-        <v>138.14525833333332</v>
+        <v>231.26371111111109</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.35">
@@ -9509,22 +9530,20 @@
         <v>5</v>
       </c>
       <c r="D311" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E311" t="s">
         <v>18</v>
       </c>
-      <c r="G311" s="1">
-        <v>24.828199999999981</v>
-      </c>
+      <c r="G311" s="1"/>
       <c r="H311" s="1">
-        <v>57.815999999999995</v>
+        <v>48.747633055555553</v>
       </c>
       <c r="I311" s="1">
-        <v>144.54</v>
+        <v>85.473006111111104</v>
       </c>
       <c r="J311" s="1">
-        <v>231.26371111111109</v>
+        <v>211.45956388888888</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.35">
@@ -9538,20 +9557,22 @@
         <v>5</v>
       </c>
       <c r="D312" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E312" t="s">
         <v>18</v>
       </c>
-      <c r="G312" s="1"/>
+      <c r="G312" s="1">
+        <v>16.086999999999996</v>
+      </c>
       <c r="H312" s="1">
-        <v>48.747633055555553</v>
+        <v>34.481569922222221</v>
       </c>
       <c r="I312" s="1">
-        <v>85.473006111111104</v>
+        <v>49.066941033333329</v>
       </c>
       <c r="J312" s="1">
-        <v>211.45956388888888</v>
+        <v>63.619031366666661</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.35">
@@ -9565,22 +9586,16 @@
         <v>5</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="E313" t="s">
         <v>18</v>
       </c>
-      <c r="G313" s="1">
-        <v>16.086999999999996</v>
-      </c>
-      <c r="H313" s="1">
-        <v>34.481569922222221</v>
-      </c>
       <c r="I313" s="1">
-        <v>49.066941033333329</v>
+        <v>53.479913055555549</v>
       </c>
       <c r="J313" s="1">
-        <v>63.619031366666661</v>
+        <v>130.04291527777775</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.35">
@@ -9594,39 +9609,42 @@
         <v>5</v>
       </c>
       <c r="D314" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E314" t="s">
         <v>18</v>
       </c>
       <c r="I314" s="1">
-        <v>53.479913055555549</v>
+        <v>3.9679956666666665</v>
       </c>
       <c r="J314" s="1">
-        <v>130.04291527777775</v>
+        <v>28.720812319444441</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B315" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
       </c>
       <c r="D315" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="E315" t="s">
         <v>18</v>
       </c>
+      <c r="G315" s="1">
+        <v>67.239286037769006</v>
+      </c>
+      <c r="H315" s="1">
+        <v>63.602172246814597</v>
+      </c>
       <c r="I315" s="1">
-        <v>3.9679956666666665</v>
-      </c>
-      <c r="J315" s="1">
-        <v>28.720812319444441</v>
+        <v>68.534480693400297</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.35">
@@ -9640,19 +9658,19 @@
         <v>5</v>
       </c>
       <c r="D316" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E316" t="s">
         <v>18</v>
       </c>
       <c r="G316" s="1">
-        <v>67.239286037769006</v>
+        <v>20.719643119962701</v>
       </c>
       <c r="H316" s="1">
-        <v>63.602172246814597</v>
+        <v>51.742484198581501</v>
       </c>
       <c r="I316" s="1">
-        <v>68.534480693400297</v>
+        <v>107.27764429306499</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.35">
@@ -9666,19 +9684,19 @@
         <v>5</v>
       </c>
       <c r="D317" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E317" t="s">
         <v>18</v>
       </c>
       <c r="G317" s="1">
-        <v>20.719643119962701</v>
+        <v>10.1631023213428</v>
       </c>
       <c r="H317" s="1">
-        <v>51.742484198581501</v>
+        <v>25.3799816061501</v>
       </c>
       <c r="I317" s="1">
-        <v>107.27764429306499</v>
+        <v>52.620292223691699</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.35">
@@ -9692,19 +9710,19 @@
         <v>5</v>
       </c>
       <c r="D318" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E318" t="s">
         <v>18</v>
       </c>
       <c r="G318" s="1">
-        <v>10.1631023213428</v>
+        <v>13.5424347975</v>
       </c>
       <c r="H318" s="1">
-        <v>25.3799816061501</v>
+        <v>21.7693825549173</v>
       </c>
       <c r="I318" s="1">
-        <v>52.620292223691699</v>
+        <v>25.261191958332699</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.35">
@@ -9718,19 +9736,19 @@
         <v>5</v>
       </c>
       <c r="D319" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E319" t="s">
         <v>18</v>
       </c>
       <c r="G319" s="1">
-        <v>13.5424347975</v>
+        <v>68.604537374999893</v>
       </c>
       <c r="H319" s="1">
-        <v>21.7693825549173</v>
+        <v>94.069945062326994</v>
       </c>
       <c r="I319" s="1">
-        <v>25.261191958332699</v>
+        <v>97.049444396241995</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.35">
@@ -9744,19 +9762,19 @@
         <v>5</v>
       </c>
       <c r="D320" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E320" t="s">
         <v>18</v>
       </c>
       <c r="G320" s="1">
-        <v>68.604537374999893</v>
+        <v>122.5843084</v>
       </c>
       <c r="H320" s="1">
-        <v>94.069945062326994</v>
+        <v>137.78166160000001</v>
       </c>
       <c r="I320" s="1">
-        <v>97.049444396241995</v>
+        <v>167.89430970000001</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.35">
@@ -9770,19 +9788,19 @@
         <v>5</v>
       </c>
       <c r="D321" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E321" t="s">
         <v>18</v>
       </c>
       <c r="G321" s="1">
-        <v>122.5843084</v>
+        <v>1.1466879125</v>
       </c>
       <c r="H321" s="1">
-        <v>137.78166160000001</v>
+        <v>1.7886256008799799</v>
       </c>
       <c r="I321" s="1">
-        <v>167.89430970000001</v>
+        <v>0.84724370567998997</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.35">
@@ -9790,25 +9808,25 @@
         <v>106</v>
       </c>
       <c r="B322" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
       </c>
       <c r="D322" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E322" t="s">
         <v>18</v>
       </c>
       <c r="G322" s="1">
-        <v>1.1466879125</v>
+        <v>67.239286037769006</v>
       </c>
       <c r="H322" s="1">
-        <v>1.7886256008799799</v>
+        <v>79.974984283351205</v>
       </c>
       <c r="I322" s="1">
-        <v>0.84724370567998997</v>
+        <v>86.176994003484296</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.35">
@@ -9822,19 +9840,19 @@
         <v>5</v>
       </c>
       <c r="D323" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E323" t="s">
         <v>18</v>
       </c>
       <c r="G323" s="1">
-        <v>67.239286037769006</v>
+        <v>21.661445079960998</v>
       </c>
       <c r="H323" s="1">
-        <v>79.974984283351205</v>
+        <v>84.882397533372597</v>
       </c>
       <c r="I323" s="1">
-        <v>86.176994003484296</v>
+        <v>146.16958283199</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.35">
@@ -9848,19 +9866,19 @@
         <v>5</v>
       </c>
       <c r="D324" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E324" t="s">
         <v>18</v>
       </c>
       <c r="G324" s="1">
-        <v>21.661445079960998</v>
+        <v>10.625061517767501</v>
       </c>
       <c r="H324" s="1">
-        <v>84.882397533372597</v>
+        <v>41.635296825233901</v>
       </c>
       <c r="I324" s="1">
-        <v>146.16958283199</v>
+        <v>90.905225660649805</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
@@ -9874,19 +9892,19 @@
         <v>5</v>
       </c>
       <c r="D325" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E325" t="s">
         <v>18</v>
       </c>
       <c r="G325" s="1">
-        <v>10.625061517767501</v>
+        <v>13.5424347975</v>
       </c>
       <c r="H325" s="1">
-        <v>41.635296825233901</v>
+        <v>21.7693825549173</v>
       </c>
       <c r="I325" s="1">
-        <v>90.905225660649805</v>
+        <v>25.261191958332699</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.35">
@@ -9900,19 +9918,19 @@
         <v>5</v>
       </c>
       <c r="D326" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E326" t="s">
         <v>18</v>
       </c>
       <c r="G326" s="1">
-        <v>13.5424347975</v>
+        <v>68.604537374999893</v>
       </c>
       <c r="H326" s="1">
-        <v>21.7693825549173</v>
+        <v>73.850436987643505</v>
       </c>
       <c r="I326" s="1">
-        <v>25.261191958332699</v>
+        <v>35.800540266697901</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.35">
@@ -9926,19 +9944,19 @@
         <v>5</v>
       </c>
       <c r="D327" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E327" t="s">
         <v>18</v>
       </c>
       <c r="G327" s="1">
-        <v>68.604537374999893</v>
+        <v>121.1805473</v>
       </c>
       <c r="H327" s="1">
-        <v>73.850436987643505</v>
+        <v>124.3998491</v>
       </c>
       <c r="I327" s="1">
-        <v>35.800540266697901</v>
+        <v>166.49054860000001</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.35">
@@ -9952,19 +9970,19 @@
         <v>5</v>
       </c>
       <c r="D328" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E328" t="s">
         <v>18</v>
       </c>
       <c r="G328" s="1">
-        <v>121.1805473</v>
+        <v>1.1466879125</v>
       </c>
       <c r="H328" s="1">
-        <v>124.3998491</v>
+        <v>1.7886256008799799</v>
       </c>
       <c r="I328" s="1">
-        <v>166.49054860000001</v>
+        <v>0.84724370567998997</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.35">
@@ -9972,25 +9990,25 @@
         <v>106</v>
       </c>
       <c r="B329" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
       </c>
       <c r="D329" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E329" t="s">
         <v>18</v>
       </c>
       <c r="G329" s="1">
-        <v>1.1466879125</v>
+        <v>67.239286037769006</v>
       </c>
       <c r="H329" s="1">
-        <v>1.7886256008799799</v>
+        <v>79.974984283351205</v>
       </c>
       <c r="I329" s="1">
-        <v>0.84724370567998997</v>
+        <v>86.176994003484296</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.35">
@@ -10004,19 +10022,19 @@
         <v>5</v>
       </c>
       <c r="D330" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E330" t="s">
         <v>18</v>
       </c>
       <c r="G330" s="1">
-        <v>67.239286037769006</v>
+        <v>21.661445079960998</v>
       </c>
       <c r="H330" s="1">
-        <v>79.974984283351205</v>
+        <v>84.882397533372597</v>
       </c>
       <c r="I330" s="1">
-        <v>86.176994003484296</v>
+        <v>146.16958283199</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.35">
@@ -10030,19 +10048,19 @@
         <v>5</v>
       </c>
       <c r="D331" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E331" t="s">
         <v>18</v>
       </c>
       <c r="G331" s="1">
-        <v>21.661445079960998</v>
+        <v>10.625061517767501</v>
       </c>
       <c r="H331" s="1">
-        <v>84.882397533372597</v>
+        <v>41.635296825233901</v>
       </c>
       <c r="I331" s="1">
-        <v>146.16958283199</v>
+        <v>113.631532075812</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.35">
@@ -10056,19 +10074,19 @@
         <v>5</v>
       </c>
       <c r="D332" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E332" t="s">
         <v>18</v>
       </c>
       <c r="G332" s="1">
-        <v>10.625061517767501</v>
+        <v>13.5424347975</v>
       </c>
       <c r="H332" s="1">
-        <v>41.635296825233901</v>
+        <v>21.7693825549173</v>
       </c>
       <c r="I332" s="1">
-        <v>113.631532075812</v>
+        <v>25.261191958332699</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.35">
@@ -10082,19 +10100,19 @@
         <v>5</v>
       </c>
       <c r="D333" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E333" t="s">
         <v>18</v>
       </c>
       <c r="G333" s="1">
-        <v>13.5424347975</v>
+        <v>68.604537374999893</v>
       </c>
       <c r="H333" s="1">
-        <v>21.7693825549173</v>
+        <v>116.213631476885</v>
       </c>
       <c r="I333" s="1">
-        <v>25.261191958332699</v>
+        <v>139.40408982805101</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.35">
@@ -10108,19 +10126,19 @@
         <v>5</v>
       </c>
       <c r="D334" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E334" t="s">
         <v>18</v>
       </c>
       <c r="G334" s="1">
-        <v>68.604537374999893</v>
+        <v>121.1805473</v>
       </c>
       <c r="H334" s="1">
-        <v>116.213631476885</v>
+        <v>82.036654630000001</v>
       </c>
       <c r="I334" s="1">
-        <v>139.40408982805101</v>
+        <v>39.244242440000001</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.35">
@@ -10134,19 +10152,19 @@
         <v>5</v>
       </c>
       <c r="D335" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E335" t="s">
         <v>18</v>
       </c>
       <c r="G335" s="1">
-        <v>121.1805473</v>
+        <v>1.1466879125</v>
       </c>
       <c r="H335" s="1">
-        <v>82.036654630000001</v>
+        <v>1.7886256008799799</v>
       </c>
       <c r="I335" s="1">
-        <v>39.244242440000001</v>
+        <v>1.7636938626246601</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.35">
@@ -10154,25 +10172,25 @@
         <v>106</v>
       </c>
       <c r="B336" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
       </c>
       <c r="D336" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E336" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G336" s="1">
-        <v>1.1466879125</v>
+        <v>165.5019897</v>
       </c>
       <c r="H336" s="1">
-        <v>1.7886256008799799</v>
+        <v>202.79933980000001</v>
       </c>
       <c r="I336" s="1">
-        <v>1.7636938626246601</v>
+        <v>249.93500270000001</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.35">
@@ -10180,7 +10198,7 @@
         <v>106</v>
       </c>
       <c r="B337" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -10192,13 +10210,13 @@
         <v>28</v>
       </c>
       <c r="G337" s="1">
-        <v>165.5019897</v>
+        <v>164.20433729999999</v>
       </c>
       <c r="H337" s="1">
-        <v>202.79933980000001</v>
+        <v>178.08194700000001</v>
       </c>
       <c r="I337" s="1">
-        <v>249.93500270000001</v>
+        <v>225.12200129999999</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.35">
@@ -10206,7 +10224,7 @@
         <v>106</v>
       </c>
       <c r="B338" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -10221,35 +10239,9 @@
         <v>164.20433729999999</v>
       </c>
       <c r="H338" s="1">
-        <v>178.08194700000001</v>
+        <v>138.97237190000001</v>
       </c>
       <c r="I338" s="1">
-        <v>225.12200129999999</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A339" t="s">
-        <v>106</v>
-      </c>
-      <c r="B339" t="s">
-        <v>108</v>
-      </c>
-      <c r="C339" t="s">
-        <v>5</v>
-      </c>
-      <c r="D339" t="s">
-        <v>88</v>
-      </c>
-      <c r="E339" t="s">
-        <v>28</v>
-      </c>
-      <c r="G339" s="1">
-        <v>164.20433729999999</v>
-      </c>
-      <c r="H339" s="1">
-        <v>138.97237190000001</v>
-      </c>
-      <c r="I339" s="1">
         <v>99.164604019999999</v>
       </c>
     </row>
